--- a/du lieu sach.xlsx
+++ b/du lieu sach.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK6\DATN\DATN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5129CD1-5212-439E-89FC-A81C687E4710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58858C13-9F35-4FCC-8F2E-ACB8D7C4A9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7605" yWindow="4260" windowWidth="15075" windowHeight="11115" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7605" yWindow="4260" windowWidth="15075" windowHeight="11115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sach" sheetId="1" r:id="rId1"/>
@@ -1237,7 +1237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M357"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:M90"/>
     </sheetView>
   </sheetViews>
@@ -1250,7 +1250,7 @@
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="11" max="11" width="20.28515625" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="127.85546875" customWidth="1"/>
+    <col min="13" max="13" width="105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1329,8 +1329,8 @@
         <v>14</v>
       </c>
       <c r="M2" t="str">
-        <f>"INSERT INTO Sach VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;",N'"&amp;E2&amp;"',"&amp;F2&amp;",'"&amp;G2&amp;"',"&amp;H2&amp;",1,"&amp;J2&amp;","&amp;K2&amp;","&amp;L2&amp;")"</f>
-        <v>INSERT INTO Sach VALUES('nv61','GD','GK',NULL,N'Ngữ văn lớp 6 tập 1',NULL,'nv61.jpg',6000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <f>"INSERT INTO Sach VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;",N'"&amp;E2&amp;"',"&amp;F2&amp;",'"&amp;G2&amp;"',"&amp;H2&amp;",1,"&amp;J2&amp;",'','')"</f>
+        <v>INSERT INTO Sach VALUES('nv61','GD','GK',NULL,N'Ngữ văn lớp 6 tập 1',NULL,'nv61.jpg',6000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1371,8 +1371,8 @@
         <v>14</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M66" si="0">"INSERT INTO Sach VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",N'"&amp;E3&amp;"',"&amp;F3&amp;",'"&amp;G3&amp;"',"&amp;H3&amp;",1,"&amp;J3&amp;","&amp;K3&amp;","&amp;L3&amp;")"</f>
-        <v>INSERT INTO Sach VALUES('nv62','GD','GK',NULL,N'Ngữ văn 6 lớp tập 2',NULL,'nv62.jpg',6000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <f t="shared" ref="M3:M66" si="0">"INSERT INTO Sach VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",N'"&amp;E3&amp;"',"&amp;F3&amp;",'"&amp;G3&amp;"',"&amp;H3&amp;",1,"&amp;J3&amp;",'','')"</f>
+        <v>INSERT INTO Sach VALUES('nv62','GD','GK',NULL,N'Ngữ văn 6 lớp tập 2',NULL,'nv62.jpg',6000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv71','GD','GK',NULL,N'Ngữ văn lớp 7 tập 1',NULL,'nv71.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('nv71','GD','GK',NULL,N'Ngữ văn lớp 7 tập 1',NULL,'nv71.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv72','GD','GK',NULL,N'Ngữ văn lớp 7 tập 2',NULL,'nv72.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('nv72','GD','GK',NULL,N'Ngữ văn lớp 7 tập 2',NULL,'nv72.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv81','GD','GK',NULL,N'Ngữ văn lớp 8 tập 1',NULL,'nv81.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('nv81','GD','GK',NULL,N'Ngữ văn lớp 8 tập 1',NULL,'nv81.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv82','GD','GK',NULL,N'Ngữ văn lớp 8 tập 2',NULL,'nv82.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('nv82','GD','GK',NULL,N'Ngữ văn lớp 8 tập 2',NULL,'nv82.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv91','GD','GK',NULL,N'Ngữ văn lớp 9 tập 1',NULL,'nv91.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('nv91','GD','GK',NULL,N'Ngữ văn lớp 9 tập 1',NULL,'nv91.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv92','GD','GK',NULL,N'Ngữ văn lớp 9 tập 2',NULL,'nv92.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('nv92','GD','GK',NULL,N'Ngữ văn lớp 9 tập 2',NULL,'nv92.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv101','GD','GK',NULL,N'Ngữ văn lớp 10 tập 1',NULL,'nv101.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('nv101','GD','GK',NULL,N'Ngữ văn lớp 10 tập 1',NULL,'nv101.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv102','GD','GK',NULL,N'Ngữ văn lớp 10 tập 2',NULL,'nv102.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('nv102','GD','GK',NULL,N'Ngữ văn lớp 10 tập 2',NULL,'nv102.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv111','GD','GK',NULL,N'Ngữ văn lớp 11 tập 1',NULL,'nv111.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('nv111','GD','GK',NULL,N'Ngữ văn lớp 11 tập 1',NULL,'nv111.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv112','GD','GK',NULL,N'Ngữ văn lớp 11 tập 2',NULL,'nv112.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('nv112','GD','GK',NULL,N'Ngữ văn lớp 11 tập 2',NULL,'nv112.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv121','GD','GK',NULL,N'Ngữ văn lớp 12 tập 1',NULL,'nv121.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('nv121','GD','GK',NULL,N'Ngữ văn lớp 12 tập 1',NULL,'nv121.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="M15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv122','GD','GK',NULL,N'Ngữ văn lớp 12 tập 2',NULL,'nv122.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('nv122','GD','GK',NULL,N'Ngữ văn lớp 12 tập 2',NULL,'nv122.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="M16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t61','GD','GK',NULL,N'Toán lớp 6 tập 1',NULL,'t61.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('t61','GD','GK',NULL,N'Toán lớp 6 tập 1',NULL,'t61.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="M17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t62','GD','GK',NULL,N'Toán lớp 6 tập 2',NULL,'t62.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('t62','GD','GK',NULL,N'Toán lớp 6 tập 2',NULL,'t62.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="M18" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t71','GD','GK',NULL,N'Toán lớp 7 tập 1',NULL,'t71.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('t71','GD','GK',NULL,N'Toán lớp 7 tập 1',NULL,'t71.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="M19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t72','GD','GK',NULL,N'Toán lớp 7 tập 2',NULL,'t72.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('t72','GD','GK',NULL,N'Toán lớp 7 tập 2',NULL,'t72.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="M20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t81','GD','GK',NULL,N'Toán lớp 8 tập 1',NULL,'t81.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('t81','GD','GK',NULL,N'Toán lớp 8 tập 1',NULL,'t81.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="M21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t82','GD','GK',NULL,N'Toán lớp 8 tập 2',NULL,'t82.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('t82','GD','GK',NULL,N'Toán lớp 8 tập 2',NULL,'t82.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="M22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t91','GD','GK',NULL,N'Toán lớp 9 tập 1',NULL,'t91.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('t91','GD','GK',NULL,N'Toán lớp 9 tập 1',NULL,'t91.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t92','GD','GK',NULL,N'Toán lớp 9 tập 2',NULL,'t92.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('t92','GD','GK',NULL,N'Toán lớp 9 tập 2',NULL,'t92.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t-ds10','GD','GK',NULL,N'Toán đại số lớp 10',NULL,'t-ds10.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('t-ds10','GD','GK',NULL,N'Toán đại số lớp 10',NULL,'t-ds10.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t-ds11','GD','GK',NULL,N'Toán đại số lớp 11',NULL,'t-ds11.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('t-ds11','GD','GK',NULL,N'Toán đại số lớp 11',NULL,'t-ds11.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t-ds12','GD','GK',NULL,N'Toán đại số lớp 12',NULL,'t-ds12.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('t-ds12','GD','GK',NULL,N'Toán đại số lớp 12',NULL,'t-ds12.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="M27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t-hh10','GD','GK',NULL,N'Toán hình học lớp 10',NULL,'t-hh10.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('t-hh10','GD','GK',NULL,N'Toán hình học lớp 10',NULL,'t-hh10.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t-hh11','GD','GK',NULL,N'Toán hình học lớp 11',NULL,'t-hh11.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('t-hh11','GD','GK',NULL,N'Toán hình học lớp 11',NULL,'t-hh11.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t-hh12','GD','GK',NULL,N'Toán hình học  lớp 12',NULL,'t-hh12.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('t-hh12','GD','GK',NULL,N'Toán hình học  lớp 12',NULL,'t-hh12.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="M30" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ta6','GD','GK',NULL,N'Tiếng anh lớp 6',NULL,'av6.jpg',5000,1,NULL,44994.4127803241,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('ta6','GD','GK',NULL,N'Tiếng anh lớp 6',NULL,'av6.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ta7','GD','GK',NULL,N'Tiếng anh lớp 7',NULL,'av7.jpg',5000,1,NULL,44995.4127803241,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('ta7','GD','GK',NULL,N'Tiếng anh lớp 7',NULL,'av7.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ta8','GD','GK',NULL,N'Tiếng anh lớp 8',NULL,'av8.jpg',5000,1,NULL,44996.4127803241,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('ta8','GD','GK',NULL,N'Tiếng anh lớp 8',NULL,'av8.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="M33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ta9','GD','GK',NULL,N'Tiếng anh lớp 9',NULL,'av9.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('ta9','GD','GK',NULL,N'Tiếng anh lớp 9',NULL,'av9.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ta10','GD','GK',NULL,N'Tiếng anh lớp 10',NULL,'av10.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('ta10','GD','GK',NULL,N'Tiếng anh lớp 10',NULL,'av10.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="M35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ta11','GD','GK',NULL,N'Tiếng anh lớp 11',NULL,'av11.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('ta11','GD','GK',NULL,N'Tiếng anh lớp 11',NULL,'av11.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="M36" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ta12','GD','GK',NULL,N'Tiếng anh lớp 12',NULL,'av12.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('ta12','GD','GK',NULL,N'Tiếng anh lớp 12',NULL,'av12.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="M37" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('h8','GD','GK',NULL,N'Hoá lớp 8',NULL,'h8.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('h8','GD','GK',NULL,N'Hoá lớp 8',NULL,'h8.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="M38" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('h9','GD','GK',NULL,N'Hoá lớp 9',NULL,'h9.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('h9','GD','GK',NULL,N'Hoá lớp 9',NULL,'h9.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="M39" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('h10','GD','GK',NULL,N'Hoá lớp 10',NULL,'h10.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('h10','GD','GK',NULL,N'Hoá lớp 10',NULL,'h10.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="M40" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('h11','GD','GK',NULL,N'Hoá lớp 11',NULL,'h11.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('h11','GD','GK',NULL,N'Hoá lớp 11',NULL,'h11.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="M41" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('h12','GD','GK',NULL,N'Hoá lớp 12',NULL,'h12.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('h12','GD','GK',NULL,N'Hoá lớp 12',NULL,'h12.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="M42" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('l6','GD','GK',NULL,N'Vật lí lớp 6',NULL,'l6.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('l6','GD','GK',NULL,N'Vật lí lớp 6',NULL,'l6.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="M43" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('l7','GD','GK',NULL,N'Vật lí lớp 7',NULL,'l7.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('l7','GD','GK',NULL,N'Vật lí lớp 7',NULL,'l7.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="M44" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('l8','GD','GK',NULL,N'Vật lí lớp 8',NULL,'l8.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('l8','GD','GK',NULL,N'Vật lí lớp 8',NULL,'l8.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="M45" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('l9','GD','GK',NULL,N'Vật lí lớp 9',NULL,'l9.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('l9','GD','GK',NULL,N'Vật lí lớp 9',NULL,'l9.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="M46" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('l10','GD','GK',NULL,N'Vật lí lớp 10',NULL,'l10.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('l10','GD','GK',NULL,N'Vật lí lớp 10',NULL,'l10.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="M47" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('l11','GD','GK',NULL,N'Vật lí lớp 11',NULL,'l11.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('l11','GD','GK',NULL,N'Vật lí lớp 11',NULL,'l11.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="M48" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('l12','GD','GK',NULL,N'Vật lí lớp 12',NULL,'l12.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('l12','GD','GK',NULL,N'Vật lí lớp 12',NULL,'l12.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="M49" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('cn6','GD','GK',NULL,N'Công nghệ lớp 6',NULL,'cn6.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('cn6','GD','GK',NULL,N'Công nghệ lớp 6',NULL,'cn6.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="M50" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('cn7','GD','GK',NULL,N'Công nghệ lớp 7',NULL,'cn7.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('cn7','GD','GK',NULL,N'Công nghệ lớp 7',NULL,'cn7.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="M51" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('cn8','GD','GK',NULL,N'Công nghệ lớp 8',NULL,'cn8.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('cn8','GD','GK',NULL,N'Công nghệ lớp 8',NULL,'cn8.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="M52" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('cn9','GD','GK',NULL,N'Công nghệ lớp 9',NULL,'cn9.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('cn9','GD','GK',NULL,N'Công nghệ lớp 9',NULL,'cn9.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="M53" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('cn10','GD','GK',NULL,N'Công nghệ lớp 10',NULL,'cn10.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('cn10','GD','GK',NULL,N'Công nghệ lớp 10',NULL,'cn10.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="M54" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('cn11','GD','GK',NULL,N'Công nghệ lớp 11',NULL,'cn11.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('cn11','GD','GK',NULL,N'Công nghệ lớp 11',NULL,'cn11.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="M55" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('cn12','GD','GK',NULL,N'Công nghệ lớp 12',NULL,'cn12.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('cn12','GD','GK',NULL,N'Công nghệ lớp 12',NULL,'cn12.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="M56" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('dl6','GD','GK',NULL,N'Địa lí lớp 6',NULL,'dl6.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('dl6','GD','GK',NULL,N'Địa lí lớp 6',NULL,'dl6.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="M57" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('dl7','GD','GK',NULL,N'Địa lí lớp 7',NULL,'dl7.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('dl7','GD','GK',NULL,N'Địa lí lớp 7',NULL,'dl7.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="M58" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('dl8','GD','GK',NULL,N'Địa lí lớp 8',NULL,'dl8.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('dl8','GD','GK',NULL,N'Địa lí lớp 8',NULL,'dl8.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="M59" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('dl9','GD','GK',NULL,N'Địa lí lớp 9',NULL,'dl9,jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('dl9','GD','GK',NULL,N'Địa lí lớp 9',NULL,'dl9,jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="M60" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('dl10','GD','GK',NULL,N'Địa lí lớp 10',NULL,'dl10.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('dl10','GD','GK',NULL,N'Địa lí lớp 10',NULL,'dl10.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="M61" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('dl11','GD','GK',NULL,N'Địa lí lớp 11',NULL,'dl11.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('dl11','GD','GK',NULL,N'Địa lí lớp 11',NULL,'dl11.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="M62" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('dl12','GD','GK',NULL,N'Địa lí lớp 12',NULL,'dl12.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('dl12','GD','GK',NULL,N'Địa lí lớp 12',NULL,'dl12.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="M63" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ls6','GD','GK',NULL,N'Lịch sử lớp 6',NULL,'ls6.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('ls6','GD','GK',NULL,N'Lịch sử lớp 6',NULL,'ls6.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="M64" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ls7','GD','GK',NULL,N'Lịch sử lớp 7',NULL,'ls7.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('ls7','GD','GK',NULL,N'Lịch sử lớp 7',NULL,'ls7.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="M65" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ls8','GD','GK',NULL,N'Lịch sử lớp 8',NULL,'ls8.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('ls8','GD','GK',NULL,N'Lịch sử lớp 8',NULL,'ls8.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="M66" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ls9','GD','GK',NULL,N'Lịch sử lớp 9',NULL,'ls9.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('ls9','GD','GK',NULL,N'Lịch sử lớp 9',NULL,'ls9.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -4059,8 +4059,8 @@
         <v>14</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M90" si="1">"INSERT INTO Sach VALUES('"&amp;A67&amp;"','"&amp;B67&amp;"','"&amp;C67&amp;"',"&amp;D67&amp;",N'"&amp;E67&amp;"',"&amp;F67&amp;",'"&amp;G67&amp;"',"&amp;H67&amp;",1,"&amp;J67&amp;","&amp;K67&amp;","&amp;L67&amp;")"</f>
-        <v>INSERT INTO Sach VALUES('ls10','GD','GK',NULL,N'Lịch sử lớp 10',NULL,'ls10.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <f t="shared" ref="M67:M90" si="1">"INSERT INTO Sach VALUES('"&amp;A67&amp;"','"&amp;B67&amp;"','"&amp;C67&amp;"',"&amp;D67&amp;",N'"&amp;E67&amp;"',"&amp;F67&amp;",'"&amp;G67&amp;"',"&amp;H67&amp;",1,"&amp;J67&amp;",'','')"</f>
+        <v>INSERT INTO Sach VALUES('ls10','GD','GK',NULL,N'Lịch sử lớp 10',NULL,'ls10.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="M68" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('ls11','GD','GK',NULL,N'Lịch sử lớp 11',NULL,'ls11.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('ls11','GD','GK',NULL,N'Lịch sử lớp 11',NULL,'ls11.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="M69" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('ls12','GD','GK',NULL,N'Lịch sử lớp 12',NULL,'ls12.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('ls12','GD','GK',NULL,N'Lịch sử lớp 12',NULL,'ls12.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="M70" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('s6','GD','GK',NULL,N'Sinh học lớp 6',NULL,'s6.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('s6','GD','GK',NULL,N'Sinh học lớp 6',NULL,'s6.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="M71" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('s7','GD','GK',NULL,N'Sinh học lớp 7',NULL,'s7.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('s7','GD','GK',NULL,N'Sinh học lớp 7',NULL,'s7.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="M72" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('s8','GD','GK',NULL,N'Sinh học lớp 8',NULL,'s8.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('s8','GD','GK',NULL,N'Sinh học lớp 8',NULL,'s8.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="M73" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('s9','GD','GK',NULL,N'Sinh học lớp 9',NULL,'s9.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('s9','GD','GK',NULL,N'Sinh học lớp 9',NULL,'s9.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="M74" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('s10','GD','GK',NULL,N'Sinh học lớp 10',NULL,'s10.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('s10','GD','GK',NULL,N'Sinh học lớp 10',NULL,'s10.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="M75" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('s11','GD','GK',NULL,N'Sinh học lớp 11',NULL,'s11.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('s11','GD','GK',NULL,N'Sinh học lớp 11',NULL,'s11.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="M76" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('s12','GD','GK',NULL,N'Sinh học lớp 12',NULL,'s12.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('s12','GD','GK',NULL,N'Sinh học lớp 12',NULL,'s12.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="M77" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdcd6','GD','GK',NULL,N'Giáo dục công dân lớp 6',NULL,'gdcd6.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('gdcd6','GD','GK',NULL,N'Giáo dục công dân lớp 6',NULL,'gdcd6.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="M78" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdcd7','GD','GK',NULL,N'Giáo dục công dân lớp 7',NULL,'gdcd7.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('gdcd7','GD','GK',NULL,N'Giáo dục công dân lớp 7',NULL,'gdcd7.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="M79" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdcd8','GD','GK',NULL,N'Giáo dục công dân lớp 8',NULL,'gdcd8.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('gdcd8','GD','GK',NULL,N'Giáo dục công dân lớp 8',NULL,'gdcd8.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="M80" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdcd9','GD','GK',NULL,N'Giáo dục công dân lớp 9',NULL,'gdcd9.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('gdcd9','GD','GK',NULL,N'Giáo dục công dân lớp 9',NULL,'gdcd9.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="M81" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdcd10','GD','GK',NULL,N'Giáo dục công dân lớp 10',NULL,'gdcd10.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('gdcd10','GD','GK',NULL,N'Giáo dục công dân lớp 10',NULL,'gdcd10.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="M82" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdcd11','GD','GK',NULL,N'Giáo dục công dân lớp 11',NULL,'gdcd11.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('gdcd11','GD','GK',NULL,N'Giáo dục công dân lớp 11',NULL,'gdcd11.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="M83" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdcd12','GD','GK',NULL,N'Giáo dục công dân lớp 12',NULL,'gdcd12.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('gdcd12','GD','GK',NULL,N'Giáo dục công dân lớp 12',NULL,'gdcd12.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="M84" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdqp10','GD','GK',NULL,N'Giáo dục quốc phòng lớp 10',NULL,'gdqp10.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('gdqp10','GD','GK',NULL,N'Giáo dục quốc phòng lớp 10',NULL,'gdqp10.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="M85" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdqp11','GD','GK',NULL,N'Giáo dục quốc phòng lớp 11',NULL,'gdqp11.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('gdqp11','GD','GK',NULL,N'Giáo dục quốc phòng lớp 11',NULL,'gdqp11.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="M86" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdqp12','GD','GK',NULL,N'Giáo dục quốc phòng lớp 12',NULL,'gdqp12.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('gdqp12','GD','GK',NULL,N'Giáo dục quốc phòng lớp 12',NULL,'gdqp12.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="M87" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('an-v6','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 6',NULL,'an-v6.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('an-v6','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 6',NULL,'an-v6.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="M88" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('an-v7','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 7',NULL,'an-v7.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('an-v7','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 7',NULL,'an-v7.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="M89" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('an-v8','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 8',NULL,'an-v8.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('an-v8','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 8',NULL,'an-v8.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="M90" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('an-v9','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 9',NULL,'an-v9.jpg',5000,1,NULL,44993.4127803627,1900-01-01)</v>
+        <v>INSERT INTO Sach VALUES('an-v9','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 9',NULL,'an-v9.jpg',5000,1,NULL,'','')</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -5852,7 +5852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A41345-0B85-407F-935C-E1D69EB0C055}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/du lieu sach.xlsx
+++ b/du lieu sach.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK6\DATN\DATN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hk6\DATN\DATN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58858C13-9F35-4FCC-8F2E-ACB8D7C4A9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE60D419-C441-4FA4-AECA-1CD08CFADF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7605" yWindow="4260" windowWidth="15075" windowHeight="11115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8145" windowWidth="14340" windowHeight="8055" tabRatio="611" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sach" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="268">
   <si>
     <t>MaSach</t>
   </si>
@@ -66,9 +66,6 @@
     <t>GK</t>
   </si>
   <si>
-    <t>1900-01-01</t>
-  </si>
-  <si>
     <t>nv61</t>
   </si>
   <si>
@@ -561,111 +558,6 @@
     <t>Âm nhạc và Mĩ thuật lớp 9</t>
   </si>
   <si>
-    <t>nv61.jpg</t>
-  </si>
-  <si>
-    <t>nv62.jpg</t>
-  </si>
-  <si>
-    <t>nv71.jpg</t>
-  </si>
-  <si>
-    <t>nv72.jpg</t>
-  </si>
-  <si>
-    <t>nv81.jpg</t>
-  </si>
-  <si>
-    <t>nv82.jpg</t>
-  </si>
-  <si>
-    <t>nv91.jpg</t>
-  </si>
-  <si>
-    <t>nv92.jpg</t>
-  </si>
-  <si>
-    <t>nv101.jpg</t>
-  </si>
-  <si>
-    <t>nv102.jpg</t>
-  </si>
-  <si>
-    <t>nv111.jpg</t>
-  </si>
-  <si>
-    <t>nv112.jpg</t>
-  </si>
-  <si>
-    <t>nv121.jpg</t>
-  </si>
-  <si>
-    <t>nv122.jpg</t>
-  </si>
-  <si>
-    <t>t61.jpg</t>
-  </si>
-  <si>
-    <t>t62.jpg</t>
-  </si>
-  <si>
-    <t>t71.jpg</t>
-  </si>
-  <si>
-    <t>t72.jpg</t>
-  </si>
-  <si>
-    <t>t81.jpg</t>
-  </si>
-  <si>
-    <t>t82.jpg</t>
-  </si>
-  <si>
-    <t>t91.jpg</t>
-  </si>
-  <si>
-    <t>t92.jpg</t>
-  </si>
-  <si>
-    <t>t-ds10.jpg</t>
-  </si>
-  <si>
-    <t>t-ds11.jpg</t>
-  </si>
-  <si>
-    <t>t-ds12.jpg</t>
-  </si>
-  <si>
-    <t>t-hh10.jpg</t>
-  </si>
-  <si>
-    <t>t-hh11.jpg</t>
-  </si>
-  <si>
-    <t>t-hh12.jpg</t>
-  </si>
-  <si>
-    <t>av6.jpg</t>
-  </si>
-  <si>
-    <t>av7.jpg</t>
-  </si>
-  <si>
-    <t>av8.jpg</t>
-  </si>
-  <si>
-    <t>av9.jpg</t>
-  </si>
-  <si>
-    <t>av10.jpg</t>
-  </si>
-  <si>
-    <t>av11.jpg</t>
-  </si>
-  <si>
-    <t>av12.jpg</t>
-  </si>
-  <si>
     <t>ta6</t>
   </si>
   <si>
@@ -708,169 +600,232 @@
     <t>Tiếng anh lớp 12</t>
   </si>
   <si>
-    <t>h8.jpg</t>
-  </si>
-  <si>
-    <t>h9.jpg</t>
-  </si>
-  <si>
-    <t>h10.jpg</t>
-  </si>
-  <si>
-    <t>h11.jpg</t>
-  </si>
-  <si>
-    <t>h12.jpg</t>
-  </si>
-  <si>
-    <t>l6.jpg</t>
-  </si>
-  <si>
-    <t>l7.jpg</t>
-  </si>
-  <si>
-    <t>l8.jpg</t>
-  </si>
-  <si>
-    <t>l9.jpg</t>
-  </si>
-  <si>
-    <t>l10.jpg</t>
-  </si>
-  <si>
-    <t>l11.jpg</t>
-  </si>
-  <si>
-    <t>l12.jpg</t>
-  </si>
-  <si>
-    <t>cn6.jpg</t>
-  </si>
-  <si>
-    <t>cn7.jpg</t>
-  </si>
-  <si>
-    <t>cn8.jpg</t>
-  </si>
-  <si>
-    <t>cn9.jpg</t>
-  </si>
-  <si>
-    <t>cn10.jpg</t>
-  </si>
-  <si>
-    <t>cn11.jpg</t>
-  </si>
-  <si>
-    <t>cn12.jpg</t>
-  </si>
-  <si>
-    <t>dl6.jpg</t>
-  </si>
-  <si>
-    <t>dl7.jpg</t>
-  </si>
-  <si>
-    <t>dl8.jpg</t>
-  </si>
-  <si>
-    <t>dl9,jpg</t>
-  </si>
-  <si>
-    <t>dl10.jpg</t>
-  </si>
-  <si>
-    <t>dl11.jpg</t>
-  </si>
-  <si>
-    <t>dl12.jpg</t>
-  </si>
-  <si>
-    <t>ls6.jpg</t>
-  </si>
-  <si>
-    <t>ls7.jpg</t>
-  </si>
-  <si>
-    <t>ls8.jpg</t>
-  </si>
-  <si>
-    <t>ls9.jpg</t>
-  </si>
-  <si>
-    <t>ls10.jpg</t>
-  </si>
-  <si>
-    <t>ls11.jpg</t>
-  </si>
-  <si>
-    <t>ls12.jpg</t>
-  </si>
-  <si>
-    <t>s6.jpg</t>
-  </si>
-  <si>
-    <t>s7.jpg</t>
-  </si>
-  <si>
-    <t>s8.jpg</t>
-  </si>
-  <si>
-    <t>s9.jpg</t>
-  </si>
-  <si>
-    <t>s10.jpg</t>
-  </si>
-  <si>
-    <t>s11.jpg</t>
-  </si>
-  <si>
-    <t>s12.jpg</t>
-  </si>
-  <si>
-    <t>gdcd6.jpg</t>
-  </si>
-  <si>
-    <t>gdcd7.jpg</t>
-  </si>
-  <si>
-    <t>gdcd8.jpg</t>
-  </si>
-  <si>
-    <t>gdcd9.jpg</t>
-  </si>
-  <si>
-    <t>gdcd10.jpg</t>
-  </si>
-  <si>
-    <t>gdcd11.jpg</t>
-  </si>
-  <si>
-    <t>gdcd12.jpg</t>
-  </si>
-  <si>
-    <t>gdqp10.jpg</t>
-  </si>
-  <si>
-    <t>gdqp11.jpg</t>
-  </si>
-  <si>
-    <t>gdqp12.jpg</t>
-  </si>
-  <si>
-    <t>an-v6.jpg</t>
-  </si>
-  <si>
-    <t>an-v7.jpg</t>
-  </si>
-  <si>
-    <t>an-v8.jpg</t>
-  </si>
-  <si>
-    <t>an-v9.jpg</t>
-  </si>
-  <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>Bộ Đề Kiểm Tra Tiếng Anh Lớp 6 Tập 1</t>
+  </si>
+  <si>
+    <t>DHQGHN</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>kt-ta61</t>
+  </si>
+  <si>
+    <t>Bộ Đề Kiểm Tra Tiếng Anh Lớp 6 Tập 2</t>
+  </si>
+  <si>
+    <t>kt-ta62</t>
+  </si>
+  <si>
+    <t>Bộ Đề Kiểm Tra Tiếng Anh Lớp 7 Tập 1</t>
+  </si>
+  <si>
+    <t>Bộ Đề Kiểm Tra Tiếng Anh Lớp 7 Tập 2</t>
+  </si>
+  <si>
+    <t>kt-ta71</t>
+  </si>
+  <si>
+    <t>kt-ta72</t>
+  </si>
+  <si>
+    <t>kt-ta81</t>
+  </si>
+  <si>
+    <t>kt-ta82</t>
+  </si>
+  <si>
+    <t>kt-ta91</t>
+  </si>
+  <si>
+    <t>kt-ta92</t>
+  </si>
+  <si>
+    <t>Bộ Đề Kiểm Tra Tiếng Anh Lớp 8 Tập 1</t>
+  </si>
+  <si>
+    <t>Bộ Đề Kiểm Tra Tiếng Anh Lớp 8 Tập 2</t>
+  </si>
+  <si>
+    <t>Bộ Đề Kiểm Tra Tiếng Anh Lớp 9 Tập 1</t>
+  </si>
+  <si>
+    <t>Bộ Đề Kiểm Tra Tiếng Anh Lớp 9 Tập 2</t>
+  </si>
+  <si>
+    <t>Luyện Giải Bộ Đề Bồi Dưỡng Học Sinh Giỏi Tiếng Anh Lớp 10</t>
+  </si>
+  <si>
+    <t>gd-ta10</t>
+  </si>
+  <si>
+    <t>Luyện Giải Bộ Đề Bồi Dưỡng Học Sinh Giỏi Tiếng Anh Lớp 11</t>
+  </si>
+  <si>
+    <t>gd-ta11</t>
+  </si>
+  <si>
+    <t>Luyện Giải Bộ Đề Bồi Dưỡng Học Sinh Giỏi Tiếng Anh Lớp 12</t>
+  </si>
+  <si>
+    <t>gd-ta12</t>
+  </si>
+  <si>
+    <t>Ôn Tập Kiểm Tra Đánh Giá Năng Lực Môn Toán Lớp 6</t>
+  </si>
+  <si>
+    <t>ktdgnl-t6</t>
+  </si>
+  <si>
+    <t>60 Đề Kiểm Tra Toán 6 (Theo Chương Trình Giáo Dục Phổ Thông Mới)</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>kt-t6</t>
+  </si>
+  <si>
+    <t>Hướng Dẫn Học &amp; Phương Pháp Giải Toán Lớp 7 - Tập 1 (Bám Sát SGK Chân Trời Sáng Tạo)</t>
+  </si>
+  <si>
+    <t>Hướng Dẫn Học &amp; Phương Pháp Giải Toán Lớp 7 - Tập 2 (Bám Sát SGK Chân Trời Sáng Tạo)</t>
+  </si>
+  <si>
+    <t>ppg-t71</t>
+  </si>
+  <si>
+    <t>ppg-t72</t>
+  </si>
+  <si>
+    <t>Bộ Đề Kiểm Tra Toán 7 (Bám Sát SGK Chân Trời Sáng Tạo)</t>
+  </si>
+  <si>
+    <t>kt-t7</t>
+  </si>
+  <si>
+    <t>100 Đề Kiểm Tra Toán 8</t>
+  </si>
+  <si>
+    <t>100kt-t8</t>
+  </si>
+  <si>
+    <t>THTPHCM</t>
+  </si>
+  <si>
+    <t>kt-t8</t>
+  </si>
+  <si>
+    <t>Đề Kiểm Tra Định Kì Toán 8</t>
+  </si>
+  <si>
+    <t>Bộ Đề Kiểm tra Toán 8</t>
+  </si>
+  <si>
+    <t>kt-t8-1</t>
+  </si>
+  <si>
+    <t>Bộ Đề Kiểm Tra Môn Toán 9 Theo Hướng Thực Tế, Tích Hợp</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>kttt-t9</t>
+  </si>
+  <si>
+    <t>Bộ Đề Ôn Thi Môn Toán 9 Vào Lớp 10</t>
+  </si>
+  <si>
+    <t>dotcc-t9</t>
+  </si>
+  <si>
+    <t>Chinh Phục Luyện Thi Vào Lớp 10 Môn Toán Theo Chủ Đề</t>
+  </si>
+  <si>
+    <t>cp-ltl10-t9</t>
+  </si>
+  <si>
+    <t>Siêu Tư Duy Luyện Đề Chuẩn Bị Kỳ Thi HSG Toán Lớp 9</t>
+  </si>
+  <si>
+    <t>std-lthsg-t9</t>
+  </si>
+  <si>
+    <t>Sách Tham Khảo Toán 10 - Quyển 1 (Biên Soạn Theo Chương Trình GDPT Mới)</t>
+  </si>
+  <si>
+    <t>tk-t101</t>
+  </si>
+  <si>
+    <t>tk-t102</t>
+  </si>
+  <si>
+    <t>Sách Tham Khảo Toán 10 - Quyển 2 (Biên Soạn Theo Chương Trình GDPT Mới)</t>
+  </si>
+  <si>
+    <t>Bồi Dưỡng Năng Lực Tự Học Toán 10</t>
+  </si>
+  <si>
+    <t>bd-th-t10</t>
+  </si>
+  <si>
+    <t>Phân Loại Và Phương Pháp Giải Các Dạng Toán Hình Học 10 (Cơ Bản &amp; Nâng Cao)</t>
+  </si>
+  <si>
+    <t>Phương Pháp Giải Các Chuyên Đề Căn Bản Đại Số - Giải Tích 11</t>
+  </si>
+  <si>
+    <t>ppg-hh10</t>
+  </si>
+  <si>
+    <t>ppg-ds11</t>
+  </si>
+  <si>
+    <t>ppg-hh11</t>
+  </si>
+  <si>
+    <t>Trắc Nghiệm Chuyên Đề Đại Số - Giải Tích &amp; Hình Học 11</t>
+  </si>
+  <si>
+    <t>Phân Dạng &amp; Phương pháp Giải Các Dạng Bài Tập Trắc Nghiệm - Hình Học 11</t>
+  </si>
+  <si>
+    <t>15 Chủ Đề Vận Dụng &amp; Nâng Cao Toán Trắc Nghiệm 11</t>
+  </si>
+  <si>
+    <t>tn-t11</t>
+  </si>
+  <si>
+    <t>vdu-nc-t11</t>
+  </si>
+  <si>
+    <t>Trắc Nghiệm Chuyên Đề Giải Tích Và Hình Học 12</t>
+  </si>
+  <si>
+    <t>tn-cd-t12</t>
+  </si>
+  <si>
+    <t>50 Đề Minh Họa 2023 Môn Toán Học</t>
+  </si>
+  <si>
+    <t>50dmh-t12</t>
+  </si>
+  <si>
+    <t>Phương Pháp Giải Toán Chuyên Đề Giải Tích 12</t>
+  </si>
+  <si>
+    <t>ppg-ds12</t>
+  </si>
+  <si>
+    <t>Tổng Ôn Toán Học (Tái Bản 2023)</t>
+  </si>
+  <si>
+    <t>o-t12</t>
   </si>
 </sst>
 </file>
@@ -915,11 +870,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1235,22 +1198,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M357"/>
+  <dimension ref="A1:M356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M90"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="105" customWidth="1"/>
+    <col min="5" max="5" width="79.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="168.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1278,22 +1244,22 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -1302,40 +1268,41 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G2" t="s">
-        <v>179</v>
+        <v>192</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G65" si="0">A2&amp;".jpg"</f>
+        <v>nv61.jpg</v>
       </c>
       <c r="H2">
         <v>6000</v>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>282</v>
-      </c>
-      <c r="K2" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
+      <c r="I2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K2" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M2" t="str">
-        <f>"INSERT INTO Sach VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;",N'"&amp;E2&amp;"',"&amp;F2&amp;",'"&amp;G2&amp;"',"&amp;H2&amp;",1,"&amp;J2&amp;",'','')"</f>
-        <v>INSERT INTO Sach VALUES('nv61','GD','GK',NULL,N'Ngữ văn lớp 6 tập 1',NULL,'nv61.jpg',6000,1,NULL,'','')</v>
+        <f>"INSERT INTO Sach VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;",N'"&amp;E2&amp;"',"&amp;F2&amp;",'"&amp;G2&amp;"',"&amp;H2&amp;",1,"&amp;J2&amp;",'',"&amp;L2&amp;")"</f>
+        <v>INSERT INTO Sach VALUES('nv61','GD','GK',NULL,N'Ngữ văn lớp 6 tập 1',NULL,'nv61.jpg',6000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1344,40 +1311,41 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G3" t="s">
-        <v>180</v>
+        <v>192</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>nv62.jpg</v>
       </c>
       <c r="H3">
         <v>6000</v>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>282</v>
-      </c>
-      <c r="K3" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
+      <c r="I3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M66" si="0">"INSERT INTO Sach VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",N'"&amp;E3&amp;"',"&amp;F3&amp;",'"&amp;G3&amp;"',"&amp;H3&amp;",1,"&amp;J3&amp;",'','')"</f>
-        <v>INSERT INTO Sach VALUES('nv62','GD','GK',NULL,N'Ngữ văn 6 lớp tập 2',NULL,'nv62.jpg',6000,1,NULL,'','')</v>
+        <f t="shared" ref="M3:M66" si="1">"INSERT INTO Sach VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",N'"&amp;E3&amp;"',"&amp;F3&amp;",'"&amp;G3&amp;"',"&amp;H3&amp;",1,"&amp;J3&amp;",'',"&amp;L3&amp;")"</f>
+        <v>INSERT INTO Sach VALUES('nv62','GD','GK',NULL,N'Ngữ văn 6 lớp tập 2',NULL,'nv62.jpg',6000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -1386,40 +1354,41 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>282</v>
-      </c>
-      <c r="G4" t="s">
-        <v>181</v>
+        <v>192</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>nv71.jpg</v>
       </c>
       <c r="H4">
         <v>5000</v>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>282</v>
-      </c>
-      <c r="K4" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
+      <c r="I4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K4" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv71','GD','GK',NULL,N'Ngữ văn lớp 7 tập 1',NULL,'nv71.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('nv71','GD','GK',NULL,N'Ngữ văn lớp 7 tập 1',NULL,'nv71.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1428,40 +1397,41 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G5" t="s">
-        <v>182</v>
+        <v>192</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>nv72.jpg</v>
       </c>
       <c r="H5">
         <v>5000</v>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>282</v>
-      </c>
-      <c r="K5" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
+      <c r="I5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K5" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv72','GD','GK',NULL,N'Ngữ văn lớp 7 tập 2',NULL,'nv72.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('nv72','GD','GK',NULL,N'Ngữ văn lớp 7 tập 2',NULL,'nv72.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1470,40 +1440,41 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>282</v>
-      </c>
-      <c r="G6" t="s">
-        <v>183</v>
+        <v>192</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>nv81.jpg</v>
       </c>
       <c r="H6">
         <v>5000</v>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>282</v>
-      </c>
-      <c r="K6" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
+      <c r="I6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K6" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv81','GD','GK',NULL,N'Ngữ văn lớp 8 tập 1',NULL,'nv81.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('nv81','GD','GK',NULL,N'Ngữ văn lớp 8 tập 1',NULL,'nv81.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1512,40 +1483,41 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G7" t="s">
-        <v>184</v>
+        <v>192</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>nv82.jpg</v>
       </c>
       <c r="H7">
         <v>5000</v>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K7" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L7" t="s">
-        <v>14</v>
+      <c r="I7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv82','GD','GK',NULL,N'Ngữ văn lớp 8 tập 2',NULL,'nv82.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('nv82','GD','GK',NULL,N'Ngữ văn lớp 8 tập 2',NULL,'nv82.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1554,40 +1526,41 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>282</v>
-      </c>
-      <c r="G8" t="s">
-        <v>185</v>
+        <v>192</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>nv91.jpg</v>
       </c>
       <c r="H8">
         <v>5000</v>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K8" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L8" t="s">
-        <v>14</v>
+      <c r="I8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv91','GD','GK',NULL,N'Ngữ văn lớp 9 tập 1',NULL,'nv91.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('nv91','GD','GK',NULL,N'Ngữ văn lớp 9 tập 1',NULL,'nv91.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1596,40 +1569,41 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>282</v>
-      </c>
-      <c r="G9" t="s">
-        <v>186</v>
+        <v>192</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>nv92.jpg</v>
       </c>
       <c r="H9">
         <v>5000</v>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>282</v>
-      </c>
-      <c r="K9" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L9" t="s">
-        <v>14</v>
+      <c r="I9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K9" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv92','GD','GK',NULL,N'Ngữ văn lớp 9 tập 2',NULL,'nv92.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('nv92','GD','GK',NULL,N'Ngữ văn lớp 9 tập 2',NULL,'nv92.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1638,40 +1612,41 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>282</v>
-      </c>
-      <c r="G10" t="s">
-        <v>187</v>
+        <v>192</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>nv101.jpg</v>
       </c>
       <c r="H10">
         <v>5000</v>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>282</v>
-      </c>
-      <c r="K10" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L10" t="s">
-        <v>14</v>
+      <c r="I10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv101','GD','GK',NULL,N'Ngữ văn lớp 10 tập 1',NULL,'nv101.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('nv101','GD','GK',NULL,N'Ngữ văn lớp 10 tập 1',NULL,'nv101.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1680,40 +1655,41 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
-        <v>282</v>
-      </c>
-      <c r="G11" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>nv102.jpg</v>
       </c>
       <c r="H11">
         <v>5000</v>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>282</v>
-      </c>
-      <c r="K11" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L11" t="s">
-        <v>14</v>
+      <c r="I11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv102','GD','GK',NULL,N'Ngữ văn lớp 10 tập 2',NULL,'nv102.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('nv102','GD','GK',NULL,N'Ngữ văn lớp 10 tập 2',NULL,'nv102.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1722,40 +1698,41 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>282</v>
-      </c>
-      <c r="G12" t="s">
-        <v>189</v>
+        <v>192</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>nv111.jpg</v>
       </c>
       <c r="H12">
         <v>5000</v>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>282</v>
-      </c>
-      <c r="K12" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L12" t="s">
-        <v>14</v>
+      <c r="I12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K12" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv111','GD','GK',NULL,N'Ngữ văn lớp 11 tập 1',NULL,'nv111.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('nv111','GD','GK',NULL,N'Ngữ văn lớp 11 tập 1',NULL,'nv111.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1764,40 +1741,41 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>282</v>
-      </c>
-      <c r="G13" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>nv112.jpg</v>
       </c>
       <c r="H13">
         <v>5000</v>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>282</v>
-      </c>
-      <c r="K13" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L13" t="s">
-        <v>14</v>
+      <c r="I13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K13" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv112','GD','GK',NULL,N'Ngữ văn lớp 11 tập 2',NULL,'nv112.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('nv112','GD','GK',NULL,N'Ngữ văn lớp 11 tập 2',NULL,'nv112.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1806,40 +1784,41 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>282</v>
-      </c>
-      <c r="G14" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>nv121.jpg</v>
       </c>
       <c r="H14">
         <v>5000</v>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>282</v>
-      </c>
-      <c r="K14" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L14" t="s">
-        <v>14</v>
+      <c r="I14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K14" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv121','GD','GK',NULL,N'Ngữ văn lớp 12 tập 1',NULL,'nv121.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('nv121','GD','GK',NULL,N'Ngữ văn lớp 12 tập 1',NULL,'nv121.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -1848,40 +1827,41 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>282</v>
-      </c>
-      <c r="G15" t="s">
-        <v>192</v>
+        <v>192</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>nv122.jpg</v>
       </c>
       <c r="H15">
         <v>5000</v>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>282</v>
-      </c>
-      <c r="K15" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L15" t="s">
-        <v>14</v>
+      <c r="I15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K15" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('nv122','GD','GK',NULL,N'Ngữ văn lớp 12 tập 2',NULL,'nv122.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('nv122','GD','GK',NULL,N'Ngữ văn lớp 12 tập 2',NULL,'nv122.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1890,40 +1870,41 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
-        <v>282</v>
-      </c>
-      <c r="G16" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>t61.jpg</v>
       </c>
       <c r="H16">
         <v>5000</v>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>282</v>
-      </c>
-      <c r="K16" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L16" t="s">
-        <v>14</v>
+      <c r="I16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K16" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t61','GD','GK',NULL,N'Toán lớp 6 tập 1',NULL,'t61.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('t61','GD','GK',NULL,N'Toán lớp 6 tập 1',NULL,'t61.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -1932,40 +1913,41 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
-        <v>282</v>
-      </c>
-      <c r="G17" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>t62.jpg</v>
       </c>
       <c r="H17">
         <v>5000</v>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>282</v>
-      </c>
-      <c r="K17" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L17" t="s">
-        <v>14</v>
+      <c r="I17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t62','GD','GK',NULL,N'Toán lớp 6 tập 2',NULL,'t62.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('t62','GD','GK',NULL,N'Toán lớp 6 tập 2',NULL,'t62.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -1974,40 +1956,41 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>282</v>
-      </c>
-      <c r="G18" t="s">
-        <v>195</v>
+        <v>192</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>t71.jpg</v>
       </c>
       <c r="H18">
         <v>5000</v>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>282</v>
-      </c>
-      <c r="K18" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L18" t="s">
-        <v>14</v>
+      <c r="I18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t71','GD','GK',NULL,N'Toán lớp 7 tập 1',NULL,'t71.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('t71','GD','GK',NULL,N'Toán lớp 7 tập 1',NULL,'t71.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -2016,40 +1999,41 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>282</v>
-      </c>
-      <c r="G19" t="s">
-        <v>196</v>
+        <v>192</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>t72.jpg</v>
       </c>
       <c r="H19">
         <v>5000</v>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>282</v>
-      </c>
-      <c r="K19" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L19" t="s">
-        <v>14</v>
+      <c r="I19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K19" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t72','GD','GK',NULL,N'Toán lớp 7 tập 2',NULL,'t72.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('t72','GD','GK',NULL,N'Toán lớp 7 tập 2',NULL,'t72.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -2058,40 +2042,41 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>282</v>
-      </c>
-      <c r="G20" t="s">
-        <v>197</v>
+        <v>192</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>t81.jpg</v>
       </c>
       <c r="H20">
         <v>5000</v>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>282</v>
-      </c>
-      <c r="K20" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L20" t="s">
-        <v>14</v>
+      <c r="I20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t81','GD','GK',NULL,N'Toán lớp 8 tập 1',NULL,'t81.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('t81','GD','GK',NULL,N'Toán lớp 8 tập 1',NULL,'t81.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -2100,40 +2085,41 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>282</v>
-      </c>
-      <c r="G21" t="s">
-        <v>198</v>
+        <v>192</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>t82.jpg</v>
       </c>
       <c r="H21">
         <v>5000</v>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
-        <v>282</v>
-      </c>
-      <c r="K21" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L21" t="s">
-        <v>14</v>
+      <c r="I21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t82','GD','GK',NULL,N'Toán lớp 8 tập 2',NULL,'t82.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('t82','GD','GK',NULL,N'Toán lớp 8 tập 2',NULL,'t82.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -2142,40 +2128,41 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
-        <v>282</v>
-      </c>
-      <c r="G22" t="s">
-        <v>199</v>
+        <v>192</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>t91.jpg</v>
       </c>
       <c r="H22">
         <v>5000</v>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>282</v>
-      </c>
-      <c r="K22" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L22" t="s">
-        <v>14</v>
+      <c r="I22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K22" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t91','GD','GK',NULL,N'Toán lớp 9 tập 1',NULL,'t91.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('t91','GD','GK',NULL,N'Toán lớp 9 tập 1',NULL,'t91.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -2184,40 +2171,41 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F23" t="s">
-        <v>282</v>
-      </c>
-      <c r="G23" t="s">
-        <v>200</v>
+        <v>192</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>t92.jpg</v>
       </c>
       <c r="H23">
         <v>5000</v>
       </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>282</v>
-      </c>
-      <c r="K23" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L23" t="s">
-        <v>14</v>
+      <c r="I23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t92','GD','GK',NULL,N'Toán lớp 9 tập 2',NULL,'t92.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('t92','GD','GK',NULL,N'Toán lớp 9 tập 2',NULL,'t92.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -2226,40 +2214,41 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24" t="s">
-        <v>282</v>
-      </c>
-      <c r="G24" t="s">
-        <v>201</v>
+        <v>192</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>t-ds10.jpg</v>
       </c>
       <c r="H24">
         <v>5000</v>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
-        <v>282</v>
-      </c>
-      <c r="K24" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L24" t="s">
-        <v>14</v>
+      <c r="I24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t-ds10','GD','GK',NULL,N'Toán đại số lớp 10',NULL,'t-ds10.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('t-ds10','GD','GK',NULL,N'Toán đại số lớp 10',NULL,'t-ds10.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -2268,40 +2257,41 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F25" t="s">
-        <v>282</v>
-      </c>
-      <c r="G25" t="s">
-        <v>202</v>
+        <v>192</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>t-ds11.jpg</v>
       </c>
       <c r="H25">
         <v>5000</v>
       </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>282</v>
-      </c>
-      <c r="K25" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L25" t="s">
-        <v>14</v>
+      <c r="I25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t-ds11','GD','GK',NULL,N'Toán đại số lớp 11',NULL,'t-ds11.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('t-ds11','GD','GK',NULL,N'Toán đại số lớp 11',NULL,'t-ds11.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -2310,40 +2300,41 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>282</v>
-      </c>
-      <c r="G26" t="s">
-        <v>203</v>
+        <v>192</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>t-ds12.jpg</v>
       </c>
       <c r="H26">
         <v>5000</v>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>282</v>
-      </c>
-      <c r="K26" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L26" t="s">
-        <v>14</v>
+      <c r="I26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K26" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t-ds12','GD','GK',NULL,N'Toán đại số lớp 12',NULL,'t-ds12.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('t-ds12','GD','GK',NULL,N'Toán đại số lớp 12',NULL,'t-ds12.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -2352,40 +2343,41 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>282</v>
-      </c>
-      <c r="G27" t="s">
-        <v>204</v>
+        <v>192</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>t-hh10.jpg</v>
       </c>
       <c r="H27">
         <v>5000</v>
       </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>282</v>
-      </c>
-      <c r="K27" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L27" t="s">
-        <v>14</v>
+      <c r="I27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K27" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t-hh10','GD','GK',NULL,N'Toán hình học lớp 10',NULL,'t-hh10.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('t-hh10','GD','GK',NULL,N'Toán hình học lớp 10',NULL,'t-hh10.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -2394,40 +2386,41 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>282</v>
-      </c>
-      <c r="G28" t="s">
-        <v>205</v>
+        <v>192</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>t-hh11.jpg</v>
       </c>
       <c r="H28">
         <v>5000</v>
       </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>282</v>
-      </c>
-      <c r="K28" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L28" t="s">
-        <v>14</v>
+      <c r="I28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K28" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t-hh11','GD','GK',NULL,N'Toán hình học lớp 11',NULL,'t-hh11.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('t-hh11','GD','GK',NULL,N'Toán hình học lớp 11',NULL,'t-hh11.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -2436,40 +2429,41 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>282</v>
-      </c>
-      <c r="G29" t="s">
-        <v>206</v>
+        <v>192</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>t-hh12.jpg</v>
       </c>
       <c r="H29">
         <v>5000</v>
       </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>282</v>
-      </c>
-      <c r="K29" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L29" t="s">
-        <v>14</v>
+      <c r="I29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('t-hh12','GD','GK',NULL,N'Toán hình học  lớp 12',NULL,'t-hh12.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('t-hh12','GD','GK',NULL,N'Toán hình học  lớp 12',NULL,'t-hh12.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -2478,40 +2472,41 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E30" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="F30" t="s">
-        <v>282</v>
-      </c>
-      <c r="G30" t="s">
-        <v>207</v>
+        <v>192</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>ta6.jpg</v>
       </c>
       <c r="H30">
         <v>5000</v>
       </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>282</v>
-      </c>
-      <c r="K30" s="1">
-        <v>44994.412780324099</v>
-      </c>
-      <c r="L30" t="s">
-        <v>14</v>
+      <c r="I30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K30" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ta6','GD','GK',NULL,N'Tiếng anh lớp 6',NULL,'av6.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('ta6','GD','GK',NULL,N'Tiếng anh lớp 6',NULL,'ta6.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -2520,40 +2515,41 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E31" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="F31" t="s">
-        <v>282</v>
-      </c>
-      <c r="G31" t="s">
-        <v>208</v>
+        <v>192</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>ta7.jpg</v>
       </c>
       <c r="H31">
         <v>5000</v>
       </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
-        <v>282</v>
-      </c>
-      <c r="K31" s="1">
-        <v>44995.412780324099</v>
-      </c>
-      <c r="L31" t="s">
-        <v>14</v>
+      <c r="I31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K31" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ta7','GD','GK',NULL,N'Tiếng anh lớp 7',NULL,'av7.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('ta7','GD','GK',NULL,N'Tiếng anh lớp 7',NULL,'ta7.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -2562,40 +2558,41 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E32" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="F32" t="s">
-        <v>282</v>
-      </c>
-      <c r="G32" t="s">
-        <v>209</v>
+        <v>192</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>ta8.jpg</v>
       </c>
       <c r="H32">
         <v>5000</v>
       </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
-        <v>282</v>
-      </c>
-      <c r="K32" s="1">
-        <v>44996.412780324099</v>
-      </c>
-      <c r="L32" t="s">
-        <v>14</v>
+      <c r="I32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K32" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ta8','GD','GK',NULL,N'Tiếng anh lớp 8',NULL,'av8.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('ta8','GD','GK',NULL,N'Tiếng anh lớp 8',NULL,'ta8.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -2604,40 +2601,41 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E33" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="F33" t="s">
-        <v>282</v>
-      </c>
-      <c r="G33" t="s">
-        <v>210</v>
+        <v>192</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>ta9.jpg</v>
       </c>
       <c r="H33">
         <v>5000</v>
       </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="s">
-        <v>282</v>
-      </c>
-      <c r="K33" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L33" t="s">
-        <v>14</v>
+      <c r="I33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K33" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ta9','GD','GK',NULL,N'Tiếng anh lớp 9',NULL,'av9.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('ta9','GD','GK',NULL,N'Tiếng anh lớp 9',NULL,'ta9.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -2646,40 +2644,41 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E34" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="F34" t="s">
-        <v>282</v>
-      </c>
-      <c r="G34" t="s">
-        <v>211</v>
+        <v>192</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>ta10.jpg</v>
       </c>
       <c r="H34">
         <v>5000</v>
       </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>282</v>
-      </c>
-      <c r="K34" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L34" t="s">
-        <v>14</v>
+      <c r="I34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K34" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ta10','GD','GK',NULL,N'Tiếng anh lớp 10',NULL,'av10.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('ta10','GD','GK',NULL,N'Tiếng anh lớp 10',NULL,'ta10.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -2688,40 +2687,41 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E35" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="F35" t="s">
-        <v>282</v>
-      </c>
-      <c r="G35" t="s">
-        <v>212</v>
+        <v>192</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>ta11.jpg</v>
       </c>
       <c r="H35">
         <v>5000</v>
       </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="s">
-        <v>282</v>
-      </c>
-      <c r="K35" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L35" t="s">
-        <v>14</v>
+      <c r="I35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K35" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ta11','GD','GK',NULL,N'Tiếng anh lớp 11',NULL,'av11.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('ta11','GD','GK',NULL,N'Tiếng anh lớp 11',NULL,'ta11.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
@@ -2730,40 +2730,41 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E36" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
-      </c>
-      <c r="G36" t="s">
-        <v>213</v>
+        <v>192</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>ta12.jpg</v>
       </c>
       <c r="H36">
         <v>5000</v>
       </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="s">
-        <v>282</v>
-      </c>
-      <c r="K36" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L36" t="s">
-        <v>14</v>
+      <c r="I36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K36" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ta12','GD','GK',NULL,N'Tiếng anh lớp 12',NULL,'av12.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('ta12','GD','GK',NULL,N'Tiếng anh lớp 12',NULL,'ta12.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -2772,40 +2773,41 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F37" t="s">
-        <v>282</v>
-      </c>
-      <c r="G37" t="s">
-        <v>228</v>
+        <v>192</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>h8.jpg</v>
       </c>
       <c r="H37">
         <v>5000</v>
       </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s">
-        <v>282</v>
-      </c>
-      <c r="K37" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L37" t="s">
-        <v>14</v>
+      <c r="I37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K37" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('h8','GD','GK',NULL,N'Hoá lớp 8',NULL,'h8.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('h8','GD','GK',NULL,N'Hoá lớp 8',NULL,'h8.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
@@ -2814,40 +2816,41 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F38" t="s">
-        <v>282</v>
-      </c>
-      <c r="G38" t="s">
-        <v>229</v>
+        <v>192</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>h9.jpg</v>
       </c>
       <c r="H38">
         <v>5000</v>
       </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="s">
-        <v>282</v>
-      </c>
-      <c r="K38" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L38" t="s">
-        <v>14</v>
+      <c r="I38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K38" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('h9','GD','GK',NULL,N'Hoá lớp 9',NULL,'h9.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('h9','GD','GK',NULL,N'Hoá lớp 9',NULL,'h9.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
@@ -2856,40 +2859,41 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F39" t="s">
-        <v>282</v>
-      </c>
-      <c r="G39" t="s">
-        <v>230</v>
+        <v>192</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>h10.jpg</v>
       </c>
       <c r="H39">
         <v>5000</v>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>282</v>
-      </c>
-      <c r="K39" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L39" t="s">
-        <v>14</v>
+      <c r="I39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K39" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('h10','GD','GK',NULL,N'Hoá lớp 10',NULL,'h10.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('h10','GD','GK',NULL,N'Hoá lớp 10',NULL,'h10.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -2898,40 +2902,41 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F40" t="s">
-        <v>282</v>
-      </c>
-      <c r="G40" t="s">
-        <v>231</v>
+        <v>192</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>h11.jpg</v>
       </c>
       <c r="H40">
         <v>5000</v>
       </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="s">
-        <v>282</v>
-      </c>
-      <c r="K40" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L40" t="s">
-        <v>14</v>
+      <c r="I40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K40" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('h11','GD','GK',NULL,N'Hoá lớp 11',NULL,'h11.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('h11','GD','GK',NULL,N'Hoá lớp 11',NULL,'h11.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
@@ -2940,40 +2945,41 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F41" t="s">
-        <v>282</v>
-      </c>
-      <c r="G41" t="s">
-        <v>232</v>
+        <v>192</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>h12.jpg</v>
       </c>
       <c r="H41">
         <v>5000</v>
       </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>282</v>
-      </c>
-      <c r="K41" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L41" t="s">
-        <v>14</v>
+      <c r="I41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K41" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('h12','GD','GK',NULL,N'Hoá lớp 12',NULL,'h12.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('h12','GD','GK',NULL,N'Hoá lớp 12',NULL,'h12.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -2982,40 +2988,41 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F42" t="s">
-        <v>282</v>
-      </c>
-      <c r="G42" t="s">
-        <v>233</v>
+        <v>192</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>l6.jpg</v>
       </c>
       <c r="H42">
         <v>5000</v>
       </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>282</v>
-      </c>
-      <c r="K42" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L42" t="s">
-        <v>14</v>
+      <c r="I42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K42" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('l6','GD','GK',NULL,N'Vật lí lớp 6',NULL,'l6.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('l6','GD','GK',NULL,N'Vật lí lớp 6',NULL,'l6.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
@@ -3024,40 +3031,41 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
-      </c>
-      <c r="G43" t="s">
-        <v>234</v>
+        <v>192</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>l7.jpg</v>
       </c>
       <c r="H43">
         <v>5000</v>
       </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>282</v>
-      </c>
-      <c r="K43" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L43" t="s">
-        <v>14</v>
+      <c r="I43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K43" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('l7','GD','GK',NULL,N'Vật lí lớp 7',NULL,'l7.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('l7','GD','GK',NULL,N'Vật lí lớp 7',NULL,'l7.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
@@ -3066,40 +3074,41 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F44" t="s">
-        <v>282</v>
-      </c>
-      <c r="G44" t="s">
-        <v>235</v>
+        <v>192</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>l8.jpg</v>
       </c>
       <c r="H44">
         <v>5000</v>
       </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="s">
-        <v>282</v>
-      </c>
-      <c r="K44" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L44" t="s">
-        <v>14</v>
+      <c r="I44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K44" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('l8','GD','GK',NULL,N'Vật lí lớp 8',NULL,'l8.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('l8','GD','GK',NULL,N'Vật lí lớp 8',NULL,'l8.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
@@ -3108,40 +3117,41 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F45" t="s">
-        <v>282</v>
-      </c>
-      <c r="G45" t="s">
-        <v>236</v>
+        <v>192</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>l9.jpg</v>
       </c>
       <c r="H45">
         <v>5000</v>
       </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>282</v>
-      </c>
-      <c r="K45" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L45" t="s">
-        <v>14</v>
+      <c r="I45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K45" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('l9','GD','GK',NULL,N'Vật lí lớp 9',NULL,'l9.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('l9','GD','GK',NULL,N'Vật lí lớp 9',NULL,'l9.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -3150,40 +3160,41 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F46" t="s">
-        <v>282</v>
-      </c>
-      <c r="G46" t="s">
-        <v>237</v>
+        <v>192</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>l10.jpg</v>
       </c>
       <c r="H46">
         <v>5000</v>
       </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>282</v>
-      </c>
-      <c r="K46" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L46" t="s">
-        <v>14</v>
+      <c r="I46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K46" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('l10','GD','GK',NULL,N'Vật lí lớp 10',NULL,'l10.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('l10','GD','GK',NULL,N'Vật lí lớp 10',NULL,'l10.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -3192,40 +3203,41 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F47" t="s">
-        <v>282</v>
-      </c>
-      <c r="G47" t="s">
-        <v>238</v>
+        <v>192</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>l11.jpg</v>
       </c>
       <c r="H47">
         <v>5000</v>
       </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>282</v>
-      </c>
-      <c r="K47" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L47" t="s">
-        <v>14</v>
+      <c r="I47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K47" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('l11','GD','GK',NULL,N'Vật lí lớp 11',NULL,'l11.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('l11','GD','GK',NULL,N'Vật lí lớp 11',NULL,'l11.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -3234,40 +3246,41 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F48" t="s">
-        <v>282</v>
-      </c>
-      <c r="G48" t="s">
-        <v>239</v>
+        <v>192</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>l12.jpg</v>
       </c>
       <c r="H48">
         <v>5000</v>
       </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>282</v>
-      </c>
-      <c r="K48" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L48" t="s">
-        <v>14</v>
+      <c r="I48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K48" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('l12','GD','GK',NULL,N'Vật lí lớp 12',NULL,'l12.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('l12','GD','GK',NULL,N'Vật lí lớp 12',NULL,'l12.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
@@ -3276,40 +3289,41 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>282</v>
-      </c>
-      <c r="G49" t="s">
-        <v>240</v>
+        <v>192</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>cn6.jpg</v>
       </c>
       <c r="H49">
         <v>5000</v>
       </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="s">
-        <v>282</v>
-      </c>
-      <c r="K49" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L49" t="s">
-        <v>14</v>
+      <c r="I49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K49" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('cn6','GD','GK',NULL,N'Công nghệ lớp 6',NULL,'cn6.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('cn6','GD','GK',NULL,N'Công nghệ lớp 6',NULL,'cn6.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
@@ -3318,40 +3332,41 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F50" t="s">
-        <v>282</v>
-      </c>
-      <c r="G50" t="s">
-        <v>241</v>
+        <v>192</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>cn7.jpg</v>
       </c>
       <c r="H50">
         <v>5000</v>
       </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>282</v>
-      </c>
-      <c r="K50" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L50" t="s">
-        <v>14</v>
+      <c r="I50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K50" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('cn7','GD','GK',NULL,N'Công nghệ lớp 7',NULL,'cn7.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('cn7','GD','GK',NULL,N'Công nghệ lớp 7',NULL,'cn7.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
@@ -3360,40 +3375,41 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F51" t="s">
-        <v>282</v>
-      </c>
-      <c r="G51" t="s">
-        <v>242</v>
+        <v>192</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>cn8.jpg</v>
       </c>
       <c r="H51">
         <v>5000</v>
       </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>282</v>
-      </c>
-      <c r="K51" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L51" t="s">
-        <v>14</v>
+      <c r="I51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K51" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('cn8','GD','GK',NULL,N'Công nghệ lớp 8',NULL,'cn8.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('cn8','GD','GK',NULL,N'Công nghệ lớp 8',NULL,'cn8.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
@@ -3402,40 +3418,41 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F52" t="s">
-        <v>282</v>
-      </c>
-      <c r="G52" t="s">
-        <v>243</v>
+        <v>192</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>cn9.jpg</v>
       </c>
       <c r="H52">
         <v>5000</v>
       </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>282</v>
-      </c>
-      <c r="K52" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L52" t="s">
-        <v>14</v>
+      <c r="I52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K52" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('cn9','GD','GK',NULL,N'Công nghệ lớp 9',NULL,'cn9.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('cn9','GD','GK',NULL,N'Công nghệ lớp 9',NULL,'cn9.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
         <v>12</v>
@@ -3444,40 +3461,41 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F53" t="s">
-        <v>282</v>
-      </c>
-      <c r="G53" t="s">
-        <v>244</v>
+        <v>192</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>cn10.jpg</v>
       </c>
       <c r="H53">
         <v>5000</v>
       </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>282</v>
-      </c>
-      <c r="K53" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L53" t="s">
-        <v>14</v>
+      <c r="I53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K53" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('cn10','GD','GK',NULL,N'Công nghệ lớp 10',NULL,'cn10.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('cn10','GD','GK',NULL,N'Công nghệ lớp 10',NULL,'cn10.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
         <v>12</v>
@@ -3486,40 +3504,41 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F54" t="s">
-        <v>282</v>
-      </c>
-      <c r="G54" t="s">
-        <v>245</v>
+        <v>192</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>cn11.jpg</v>
       </c>
       <c r="H54">
         <v>5000</v>
       </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>282</v>
-      </c>
-      <c r="K54" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L54" t="s">
-        <v>14</v>
+      <c r="I54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K54" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('cn11','GD','GK',NULL,N'Công nghệ lớp 11',NULL,'cn11.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('cn11','GD','GK',NULL,N'Công nghệ lớp 11',NULL,'cn11.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
         <v>12</v>
@@ -3528,40 +3547,41 @@
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F55" t="s">
-        <v>282</v>
-      </c>
-      <c r="G55" t="s">
-        <v>246</v>
+        <v>192</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>cn12.jpg</v>
       </c>
       <c r="H55">
         <v>5000</v>
       </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="s">
-        <v>282</v>
-      </c>
-      <c r="K55" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L55" t="s">
-        <v>14</v>
+      <c r="I55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K55" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('cn12','GD','GK',NULL,N'Công nghệ lớp 12',NULL,'cn12.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('cn12','GD','GK',NULL,N'Công nghệ lớp 12',NULL,'cn12.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
@@ -3570,40 +3590,41 @@
         <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F56" t="s">
-        <v>282</v>
-      </c>
-      <c r="G56" t="s">
-        <v>247</v>
+        <v>192</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>dl6.jpg</v>
       </c>
       <c r="H56">
         <v>5000</v>
       </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="s">
-        <v>282</v>
-      </c>
-      <c r="K56" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L56" t="s">
-        <v>14</v>
+      <c r="I56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K56" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('dl6','GD','GK',NULL,N'Địa lí lớp 6',NULL,'dl6.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('dl6','GD','GK',NULL,N'Địa lí lớp 6',NULL,'dl6.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
@@ -3612,40 +3633,41 @@
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F57" t="s">
-        <v>282</v>
-      </c>
-      <c r="G57" t="s">
-        <v>248</v>
+        <v>192</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>dl7.jpg</v>
       </c>
       <c r="H57">
         <v>5000</v>
       </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>282</v>
-      </c>
-      <c r="K57" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L57" t="s">
-        <v>14</v>
+      <c r="I57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K57" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('dl7','GD','GK',NULL,N'Địa lí lớp 7',NULL,'dl7.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('dl7','GD','GK',NULL,N'Địa lí lớp 7',NULL,'dl7.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
@@ -3654,40 +3676,41 @@
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F58" t="s">
-        <v>282</v>
-      </c>
-      <c r="G58" t="s">
-        <v>249</v>
+        <v>192</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>dl8.jpg</v>
       </c>
       <c r="H58">
         <v>5000</v>
       </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>282</v>
-      </c>
-      <c r="K58" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L58" t="s">
-        <v>14</v>
+      <c r="I58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K58" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('dl8','GD','GK',NULL,N'Địa lí lớp 8',NULL,'dl8.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('dl8','GD','GK',NULL,N'Địa lí lớp 8',NULL,'dl8.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
@@ -3696,40 +3719,41 @@
         <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F59" t="s">
-        <v>282</v>
-      </c>
-      <c r="G59" t="s">
-        <v>250</v>
+        <v>192</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>dl9.jpg</v>
       </c>
       <c r="H59">
         <v>5000</v>
       </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
-        <v>282</v>
-      </c>
-      <c r="K59" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L59" t="s">
-        <v>14</v>
+      <c r="I59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K59" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('dl9','GD','GK',NULL,N'Địa lí lớp 9',NULL,'dl9,jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('dl9','GD','GK',NULL,N'Địa lí lớp 9',NULL,'dl9.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
@@ -3738,40 +3762,41 @@
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F60" t="s">
-        <v>282</v>
-      </c>
-      <c r="G60" t="s">
-        <v>251</v>
+        <v>192</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>dl10.jpg</v>
       </c>
       <c r="H60">
         <v>5000</v>
       </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="s">
-        <v>282</v>
-      </c>
-      <c r="K60" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L60" t="s">
-        <v>14</v>
+      <c r="I60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K60" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('dl10','GD','GK',NULL,N'Địa lí lớp 10',NULL,'dl10.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('dl10','GD','GK',NULL,N'Địa lí lớp 10',NULL,'dl10.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
         <v>12</v>
@@ -3780,40 +3805,41 @@
         <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F61" t="s">
-        <v>282</v>
-      </c>
-      <c r="G61" t="s">
-        <v>252</v>
+        <v>192</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>dl11.jpg</v>
       </c>
       <c r="H61">
         <v>5000</v>
       </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>282</v>
-      </c>
-      <c r="K61" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L61" t="s">
-        <v>14</v>
+      <c r="I61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K61" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('dl11','GD','GK',NULL,N'Địa lí lớp 11',NULL,'dl11.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('dl11','GD','GK',NULL,N'Địa lí lớp 11',NULL,'dl11.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
         <v>12</v>
@@ -3822,40 +3848,41 @@
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F62" t="s">
-        <v>282</v>
-      </c>
-      <c r="G62" t="s">
-        <v>253</v>
+        <v>192</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>dl12.jpg</v>
       </c>
       <c r="H62">
         <v>5000</v>
       </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>282</v>
-      </c>
-      <c r="K62" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L62" t="s">
-        <v>14</v>
+      <c r="I62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K62" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('dl12','GD','GK',NULL,N'Địa lí lớp 12',NULL,'dl12.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('dl12','GD','GK',NULL,N'Địa lí lớp 12',NULL,'dl12.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -3864,40 +3891,41 @@
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F63" t="s">
-        <v>282</v>
-      </c>
-      <c r="G63" t="s">
-        <v>254</v>
+        <v>192</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>ls6.jpg</v>
       </c>
       <c r="H63">
         <v>5000</v>
       </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="s">
-        <v>282</v>
-      </c>
-      <c r="K63" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L63" t="s">
-        <v>14</v>
+      <c r="I63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K63" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ls6','GD','GK',NULL,N'Lịch sử lớp 6',NULL,'ls6.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('ls6','GD','GK',NULL,N'Lịch sử lớp 6',NULL,'ls6.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
@@ -3906,40 +3934,41 @@
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F64" t="s">
-        <v>282</v>
-      </c>
-      <c r="G64" t="s">
-        <v>255</v>
+        <v>192</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>ls7.jpg</v>
       </c>
       <c r="H64">
         <v>5000</v>
       </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="s">
-        <v>282</v>
-      </c>
-      <c r="K64" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L64" t="s">
-        <v>14</v>
+      <c r="I64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K64" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ls7','GD','GK',NULL,N'Lịch sử lớp 7',NULL,'ls7.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('ls7','GD','GK',NULL,N'Lịch sử lớp 7',NULL,'ls7.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
@@ -3948,40 +3977,41 @@
         <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F65" t="s">
-        <v>282</v>
-      </c>
-      <c r="G65" t="s">
-        <v>256</v>
+        <v>192</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>ls8.jpg</v>
       </c>
       <c r="H65">
         <v>5000</v>
       </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" t="s">
-        <v>282</v>
-      </c>
-      <c r="K65" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L65" t="s">
-        <v>14</v>
+      <c r="I65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K65" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ls8','GD','GK',NULL,N'Lịch sử lớp 8',NULL,'ls8.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('ls8','GD','GK',NULL,N'Lịch sử lớp 8',NULL,'ls8.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
@@ -3990,40 +4020,41 @@
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F66" t="s">
-        <v>282</v>
-      </c>
-      <c r="G66" t="s">
-        <v>257</v>
+        <v>192</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" ref="G66:G122" si="2">A66&amp;".jpg"</f>
+        <v>ls9.jpg</v>
       </c>
       <c r="H66">
         <v>5000</v>
       </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="s">
-        <v>282</v>
-      </c>
-      <c r="K66" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L66" t="s">
-        <v>14</v>
+      <c r="I66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K66" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Sach VALUES('ls9','GD','GK',NULL,N'Lịch sử lớp 9',NULL,'ls9.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO Sach VALUES('ls9','GD','GK',NULL,N'Lịch sử lớp 9',NULL,'ls9.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
@@ -4032,40 +4063,41 @@
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F67" t="s">
-        <v>282</v>
-      </c>
-      <c r="G67" t="s">
-        <v>258</v>
+        <v>192</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="2"/>
+        <v>ls10.jpg</v>
       </c>
       <c r="H67">
         <v>5000</v>
       </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="s">
-        <v>282</v>
-      </c>
-      <c r="K67" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L67" t="s">
-        <v>14</v>
+      <c r="I67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K67" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M90" si="1">"INSERT INTO Sach VALUES('"&amp;A67&amp;"','"&amp;B67&amp;"','"&amp;C67&amp;"',"&amp;D67&amp;",N'"&amp;E67&amp;"',"&amp;F67&amp;",'"&amp;G67&amp;"',"&amp;H67&amp;",1,"&amp;J67&amp;",'','')"</f>
-        <v>INSERT INTO Sach VALUES('ls10','GD','GK',NULL,N'Lịch sử lớp 10',NULL,'ls10.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" ref="M67:M126" si="3">"INSERT INTO Sach VALUES('"&amp;A67&amp;"','"&amp;B67&amp;"','"&amp;C67&amp;"',"&amp;D67&amp;",N'"&amp;E67&amp;"',"&amp;F67&amp;",'"&amp;G67&amp;"',"&amp;H67&amp;",1,"&amp;J67&amp;",'',"&amp;L67&amp;")"</f>
+        <v>INSERT INTO Sach VALUES('ls10','GD','GK',NULL,N'Lịch sử lớp 10',NULL,'ls10.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
         <v>12</v>
@@ -4074,40 +4106,41 @@
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F68" t="s">
-        <v>282</v>
-      </c>
-      <c r="G68" t="s">
-        <v>259</v>
+        <v>192</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="2"/>
+        <v>ls11.jpg</v>
       </c>
       <c r="H68">
         <v>5000</v>
       </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="s">
-        <v>282</v>
-      </c>
-      <c r="K68" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L68" t="s">
-        <v>14</v>
+      <c r="I68" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K68" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('ls11','GD','GK',NULL,N'Lịch sử lớp 11',NULL,'ls11.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('ls11','GD','GK',NULL,N'Lịch sử lớp 11',NULL,'ls11.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
@@ -4116,40 +4149,41 @@
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F69" t="s">
-        <v>282</v>
-      </c>
-      <c r="G69" t="s">
-        <v>260</v>
+        <v>192</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="2"/>
+        <v>ls12.jpg</v>
       </c>
       <c r="H69">
         <v>5000</v>
       </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="s">
-        <v>282</v>
-      </c>
-      <c r="K69" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L69" t="s">
-        <v>14</v>
+      <c r="I69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K69" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('ls12','GD','GK',NULL,N'Lịch sử lớp 12',NULL,'ls12.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('ls12','GD','GK',NULL,N'Lịch sử lớp 12',NULL,'ls12.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
@@ -4158,40 +4192,41 @@
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F70" t="s">
-        <v>282</v>
-      </c>
-      <c r="G70" t="s">
-        <v>261</v>
+        <v>192</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="2"/>
+        <v>s6.jpg</v>
       </c>
       <c r="H70">
         <v>5000</v>
       </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="s">
-        <v>282</v>
-      </c>
-      <c r="K70" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L70" t="s">
-        <v>14</v>
+      <c r="I70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K70" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('s6','GD','GK',NULL,N'Sinh học lớp 6',NULL,'s6.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('s6','GD','GK',NULL,N'Sinh học lớp 6',NULL,'s6.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
@@ -4200,40 +4235,41 @@
         <v>13</v>
       </c>
       <c r="D71" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F71" t="s">
-        <v>282</v>
-      </c>
-      <c r="G71" t="s">
-        <v>262</v>
+        <v>192</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="2"/>
+        <v>s7.jpg</v>
       </c>
       <c r="H71">
         <v>5000</v>
       </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
-      <c r="J71" t="s">
-        <v>282</v>
-      </c>
-      <c r="K71" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L71" t="s">
-        <v>14</v>
+      <c r="I71" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K71" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('s7','GD','GK',NULL,N'Sinh học lớp 7',NULL,'s7.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('s7','GD','GK',NULL,N'Sinh học lớp 7',NULL,'s7.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
@@ -4242,40 +4278,41 @@
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F72" t="s">
-        <v>282</v>
-      </c>
-      <c r="G72" t="s">
-        <v>263</v>
+        <v>192</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="2"/>
+        <v>s8.jpg</v>
       </c>
       <c r="H72">
         <v>5000</v>
       </c>
-      <c r="I72" t="b">
-        <v>1</v>
-      </c>
-      <c r="J72" t="s">
-        <v>282</v>
-      </c>
-      <c r="K72" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L72" t="s">
-        <v>14</v>
+      <c r="I72" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K72" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('s8','GD','GK',NULL,N'Sinh học lớp 8',NULL,'s8.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('s8','GD','GK',NULL,N'Sinh học lớp 8',NULL,'s8.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
@@ -4284,40 +4321,41 @@
         <v>13</v>
       </c>
       <c r="D73" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F73" t="s">
-        <v>282</v>
-      </c>
-      <c r="G73" t="s">
-        <v>264</v>
+        <v>192</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="2"/>
+        <v>s9.jpg</v>
       </c>
       <c r="H73">
         <v>5000</v>
       </c>
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
-      <c r="J73" t="s">
-        <v>282</v>
-      </c>
-      <c r="K73" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L73" t="s">
-        <v>14</v>
+      <c r="I73" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K73" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M73" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('s9','GD','GK',NULL,N'Sinh học lớp 9',NULL,'s9.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('s9','GD','GK',NULL,N'Sinh học lớp 9',NULL,'s9.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
         <v>12</v>
@@ -4326,40 +4364,41 @@
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F74" t="s">
-        <v>282</v>
-      </c>
-      <c r="G74" t="s">
-        <v>265</v>
+        <v>192</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="2"/>
+        <v>s10.jpg</v>
       </c>
       <c r="H74">
         <v>5000</v>
       </c>
-      <c r="I74" t="b">
-        <v>1</v>
-      </c>
-      <c r="J74" t="s">
-        <v>282</v>
-      </c>
-      <c r="K74" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L74" t="s">
-        <v>14</v>
+      <c r="I74" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K74" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('s10','GD','GK',NULL,N'Sinh học lớp 10',NULL,'s10.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('s10','GD','GK',NULL,N'Sinh học lớp 10',NULL,'s10.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
@@ -4368,40 +4407,41 @@
         <v>13</v>
       </c>
       <c r="D75" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F75" t="s">
-        <v>282</v>
-      </c>
-      <c r="G75" t="s">
-        <v>266</v>
+        <v>192</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="2"/>
+        <v>s11.jpg</v>
       </c>
       <c r="H75">
         <v>5000</v>
       </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="s">
-        <v>282</v>
-      </c>
-      <c r="K75" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L75" t="s">
-        <v>14</v>
+      <c r="I75" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K75" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M75" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('s11','GD','GK',NULL,N'Sinh học lớp 11',NULL,'s11.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('s11','GD','GK',NULL,N'Sinh học lớp 11',NULL,'s11.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
         <v>12</v>
@@ -4410,40 +4450,41 @@
         <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F76" t="s">
-        <v>282</v>
-      </c>
-      <c r="G76" t="s">
-        <v>267</v>
+        <v>192</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="2"/>
+        <v>s12.jpg</v>
       </c>
       <c r="H76">
         <v>5000</v>
       </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="s">
-        <v>282</v>
-      </c>
-      <c r="K76" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L76" t="s">
-        <v>14</v>
+      <c r="I76" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K76" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M76" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('s12','GD','GK',NULL,N'Sinh học lớp 12',NULL,'s12.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('s12','GD','GK',NULL,N'Sinh học lớp 12',NULL,'s12.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
@@ -4452,40 +4493,41 @@
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F77" t="s">
-        <v>282</v>
-      </c>
-      <c r="G77" t="s">
-        <v>268</v>
+        <v>192</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="2"/>
+        <v>gdcd6.jpg</v>
       </c>
       <c r="H77">
         <v>5000</v>
       </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="s">
-        <v>282</v>
-      </c>
-      <c r="K77" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L77" t="s">
-        <v>14</v>
+      <c r="I77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K77" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M77" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdcd6','GD','GK',NULL,N'Giáo dục công dân lớp 6',NULL,'gdcd6.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('gdcd6','GD','GK',NULL,N'Giáo dục công dân lớp 6',NULL,'gdcd6.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" t="s">
         <v>12</v>
@@ -4494,40 +4536,41 @@
         <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E78" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F78" t="s">
-        <v>282</v>
-      </c>
-      <c r="G78" t="s">
-        <v>269</v>
+        <v>192</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="2"/>
+        <v>gdcd7.jpg</v>
       </c>
       <c r="H78">
         <v>5000</v>
       </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="s">
-        <v>282</v>
-      </c>
-      <c r="K78" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L78" t="s">
-        <v>14</v>
+      <c r="I78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K78" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M78" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdcd7','GD','GK',NULL,N'Giáo dục công dân lớp 7',NULL,'gdcd7.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('gdcd7','GD','GK',NULL,N'Giáo dục công dân lớp 7',NULL,'gdcd7.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
         <v>12</v>
@@ -4536,40 +4579,41 @@
         <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F79" t="s">
-        <v>282</v>
-      </c>
-      <c r="G79" t="s">
-        <v>270</v>
+        <v>192</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="2"/>
+        <v>gdcd8.jpg</v>
       </c>
       <c r="H79">
         <v>5000</v>
       </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="s">
-        <v>282</v>
-      </c>
-      <c r="K79" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L79" t="s">
-        <v>14</v>
+      <c r="I79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K79" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M79" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdcd8','GD','GK',NULL,N'Giáo dục công dân lớp 8',NULL,'gdcd8.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('gdcd8','GD','GK',NULL,N'Giáo dục công dân lớp 8',NULL,'gdcd8.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
         <v>12</v>
@@ -4578,40 +4622,41 @@
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F80" t="s">
-        <v>282</v>
-      </c>
-      <c r="G80" t="s">
-        <v>271</v>
+        <v>192</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="2"/>
+        <v>gdcd9.jpg</v>
       </c>
       <c r="H80">
         <v>5000</v>
       </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="s">
-        <v>282</v>
-      </c>
-      <c r="K80" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L80" t="s">
-        <v>14</v>
+      <c r="I80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K80" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M80" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdcd9','GD','GK',NULL,N'Giáo dục công dân lớp 9',NULL,'gdcd9.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('gdcd9','GD','GK',NULL,N'Giáo dục công dân lớp 9',NULL,'gdcd9.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
@@ -4620,40 +4665,41 @@
         <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F81" t="s">
-        <v>282</v>
-      </c>
-      <c r="G81" t="s">
-        <v>272</v>
+        <v>192</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="2"/>
+        <v>gdcd10.jpg</v>
       </c>
       <c r="H81">
         <v>5000</v>
       </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="s">
-        <v>282</v>
-      </c>
-      <c r="K81" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L81" t="s">
-        <v>14</v>
+      <c r="I81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K81" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M81" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdcd10','GD','GK',NULL,N'Giáo dục công dân lớp 10',NULL,'gdcd10.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('gdcd10','GD','GK',NULL,N'Giáo dục công dân lớp 10',NULL,'gdcd10.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82" t="s">
         <v>12</v>
@@ -4662,40 +4708,41 @@
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F82" t="s">
-        <v>282</v>
-      </c>
-      <c r="G82" t="s">
-        <v>273</v>
+        <v>192</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="2"/>
+        <v>gdcd11.jpg</v>
       </c>
       <c r="H82">
         <v>5000</v>
       </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" t="s">
-        <v>282</v>
-      </c>
-      <c r="K82" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L82" t="s">
-        <v>14</v>
+      <c r="I82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K82" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M82" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdcd11','GD','GK',NULL,N'Giáo dục công dân lớp 11',NULL,'gdcd11.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('gdcd11','GD','GK',NULL,N'Giáo dục công dân lớp 11',NULL,'gdcd11.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83" t="s">
         <v>12</v>
@@ -4704,40 +4751,41 @@
         <v>13</v>
       </c>
       <c r="D83" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F83" t="s">
-        <v>282</v>
-      </c>
-      <c r="G83" t="s">
-        <v>274</v>
+        <v>192</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="2"/>
+        <v>gdcd12.jpg</v>
       </c>
       <c r="H83">
         <v>5000</v>
       </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="s">
-        <v>282</v>
-      </c>
-      <c r="K83" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L83" t="s">
-        <v>14</v>
+      <c r="I83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K83" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M83" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdcd12','GD','GK',NULL,N'Giáo dục công dân lớp 12',NULL,'gdcd12.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('gdcd12','GD','GK',NULL,N'Giáo dục công dân lớp 12',NULL,'gdcd12.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84" t="s">
         <v>12</v>
@@ -4746,40 +4794,41 @@
         <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F84" t="s">
-        <v>282</v>
-      </c>
-      <c r="G84" t="s">
-        <v>275</v>
+        <v>192</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="2"/>
+        <v>gdqp10.jpg</v>
       </c>
       <c r="H84">
         <v>5000</v>
       </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" t="s">
-        <v>282</v>
-      </c>
-      <c r="K84" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L84" t="s">
-        <v>14</v>
+      <c r="I84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K84" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M84" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdqp10','GD','GK',NULL,N'Giáo dục quốc phòng lớp 10',NULL,'gdqp10.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('gdqp10','GD','GK',NULL,N'Giáo dục quốc phòng lớp 10',NULL,'gdqp10.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85" t="s">
         <v>12</v>
@@ -4788,40 +4837,41 @@
         <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F85" t="s">
-        <v>282</v>
-      </c>
-      <c r="G85" t="s">
-        <v>276</v>
+        <v>192</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="2"/>
+        <v>gdqp11.jpg</v>
       </c>
       <c r="H85">
         <v>5000</v>
       </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" t="s">
-        <v>282</v>
-      </c>
-      <c r="K85" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L85" t="s">
-        <v>14</v>
+      <c r="I85" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K85" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M85" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdqp11','GD','GK',NULL,N'Giáo dục quốc phòng lớp 11',NULL,'gdqp11.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('gdqp11','GD','GK',NULL,N'Giáo dục quốc phòng lớp 11',NULL,'gdqp11.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86" t="s">
         <v>12</v>
@@ -4830,40 +4880,41 @@
         <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E86" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F86" t="s">
-        <v>282</v>
-      </c>
-      <c r="G86" t="s">
-        <v>277</v>
+        <v>192</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="2"/>
+        <v>gdqp12.jpg</v>
       </c>
       <c r="H86">
         <v>5000</v>
       </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" t="s">
-        <v>282</v>
-      </c>
-      <c r="K86" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L86" t="s">
-        <v>14</v>
+      <c r="I86" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K86" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M86" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('gdqp12','GD','GK',NULL,N'Giáo dục quốc phòng lớp 12',NULL,'gdqp12.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('gdqp12','GD','GK',NULL,N'Giáo dục quốc phòng lớp 12',NULL,'gdqp12.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87" t="s">
         <v>12</v>
@@ -4872,40 +4923,41 @@
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F87" t="s">
-        <v>282</v>
-      </c>
-      <c r="G87" t="s">
-        <v>278</v>
+        <v>192</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="2"/>
+        <v>an-v6.jpg</v>
       </c>
       <c r="H87">
         <v>5000</v>
       </c>
-      <c r="I87" t="b">
-        <v>1</v>
-      </c>
-      <c r="J87" t="s">
-        <v>282</v>
-      </c>
-      <c r="K87" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L87" t="s">
-        <v>14</v>
+      <c r="I87" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K87" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M87" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('an-v6','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 6',NULL,'an-v6.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('an-v6','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 6',NULL,'an-v6.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88" t="s">
         <v>12</v>
@@ -4914,40 +4966,41 @@
         <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F88" t="s">
-        <v>282</v>
-      </c>
-      <c r="G88" t="s">
-        <v>279</v>
+        <v>192</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="2"/>
+        <v>an-v7.jpg</v>
       </c>
       <c r="H88">
         <v>5000</v>
       </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="s">
-        <v>282</v>
-      </c>
-      <c r="K88" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L88" t="s">
-        <v>14</v>
+      <c r="I88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K88" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('an-v7','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 7',NULL,'an-v7.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('an-v7','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 7',NULL,'an-v7.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89" t="s">
         <v>12</v>
@@ -4956,40 +5009,41 @@
         <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F89" t="s">
-        <v>282</v>
-      </c>
-      <c r="G89" t="s">
-        <v>280</v>
+        <v>192</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="2"/>
+        <v>an-v8.jpg</v>
       </c>
       <c r="H89">
         <v>5000</v>
       </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="s">
-        <v>282</v>
-      </c>
-      <c r="K89" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L89" t="s">
-        <v>14</v>
+      <c r="I89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K89" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M89" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('an-v8','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 8',NULL,'an-v8.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('an-v8','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 8',NULL,'an-v8.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90" t="s">
         <v>12</v>
@@ -4998,841 +5052,2240 @@
         <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="E90" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>282</v>
-      </c>
-      <c r="G90" t="s">
-        <v>281</v>
+        <v>192</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="2"/>
+        <v>an-v9.jpg</v>
       </c>
       <c r="H90">
         <v>5000</v>
       </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="s">
-        <v>282</v>
-      </c>
-      <c r="K90" s="1">
-        <v>44993.412780362698</v>
-      </c>
-      <c r="L90" t="s">
-        <v>14</v>
+      <c r="I90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K90" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="M90" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('an-v9','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 9',NULL,'an-v9.jpg',5000,1,NULL,'','')</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('an-v9','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 9',NULL,'an-v9.jpg',5000,1,NULL,'',NULL)</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K91" s="2"/>
+      <c r="K91" s="3"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K92" s="2"/>
+      <c r="A92" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" t="s">
+        <v>195</v>
+      </c>
+      <c r="D92" t="s">
+        <v>192</v>
+      </c>
+      <c r="E92" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" t="s">
+        <v>192</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="2"/>
+        <v>kt-ta61.jpg</v>
+      </c>
+      <c r="H92">
+        <v>69000</v>
+      </c>
+      <c r="I92" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K92" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('kt-ta61','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 6 Tập 1',NULL,'kt-ta61.jpg',69000,1,NULL,'',NULL)</v>
+      </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K93" s="2"/>
+      <c r="A93" t="s">
+        <v>198</v>
+      </c>
+      <c r="B93" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" t="s">
+        <v>195</v>
+      </c>
+      <c r="D93" t="s">
+        <v>192</v>
+      </c>
+      <c r="E93" t="s">
+        <v>197</v>
+      </c>
+      <c r="F93" t="s">
+        <v>192</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="2"/>
+        <v>kt-ta62.jpg</v>
+      </c>
+      <c r="H93">
+        <v>69000</v>
+      </c>
+      <c r="I93" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K93" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('kt-ta62','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 6 Tập 2',NULL,'kt-ta62.jpg',69000,1,NULL,'',NULL)</v>
+      </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K94" s="2"/>
+      <c r="A94" t="s">
+        <v>201</v>
+      </c>
+      <c r="B94" t="s">
+        <v>194</v>
+      </c>
+      <c r="C94" t="s">
+        <v>195</v>
+      </c>
+      <c r="D94" t="s">
+        <v>192</v>
+      </c>
+      <c r="E94" t="s">
+        <v>199</v>
+      </c>
+      <c r="F94" t="s">
+        <v>192</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="2"/>
+        <v>kt-ta71.jpg</v>
+      </c>
+      <c r="H94">
+        <v>75000</v>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K94" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('kt-ta71','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 7 Tập 1',NULL,'kt-ta71.jpg',75000,1,NULL,'',NULL)</v>
+      </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K95" s="2"/>
+      <c r="A95" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" t="s">
+        <v>192</v>
+      </c>
+      <c r="E95" t="s">
+        <v>200</v>
+      </c>
+      <c r="F95" t="s">
+        <v>192</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="2"/>
+        <v>kt-ta72.jpg</v>
+      </c>
+      <c r="H95">
+        <v>75000</v>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K95" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('kt-ta72','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 7 Tập 2',NULL,'kt-ta72.jpg',75000,1,NULL,'',NULL)</v>
+      </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K99" s="2"/>
-    </row>
-    <row r="100" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K100" s="2"/>
-    </row>
-    <row r="101" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K101" s="2"/>
-    </row>
-    <row r="102" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K102" s="2"/>
-    </row>
-    <row r="103" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K103" s="2"/>
-    </row>
-    <row r="104" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K104" s="2"/>
-    </row>
-    <row r="105" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K105" s="2"/>
-    </row>
-    <row r="106" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K106" s="2"/>
-    </row>
-    <row r="107" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K107" s="2"/>
-    </row>
-    <row r="108" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K108" s="2"/>
-    </row>
-    <row r="109" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K109" s="2"/>
-    </row>
-    <row r="110" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K110" s="2"/>
-    </row>
-    <row r="111" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K111" s="2"/>
-    </row>
-    <row r="112" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K112" s="2"/>
-    </row>
-    <row r="113" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K113" s="2"/>
-    </row>
-    <row r="114" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K114" s="2"/>
-    </row>
-    <row r="115" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K115" s="2"/>
-    </row>
-    <row r="116" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K116" s="2"/>
-    </row>
-    <row r="117" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K117" s="2"/>
-    </row>
-    <row r="118" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K118" s="2"/>
-    </row>
-    <row r="119" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K119" s="2"/>
-    </row>
-    <row r="120" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K120" s="2"/>
-    </row>
-    <row r="121" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K121" s="2"/>
-    </row>
-    <row r="122" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K122" s="2"/>
-    </row>
-    <row r="123" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K123" s="2"/>
-    </row>
-    <row r="124" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K124" s="2"/>
-    </row>
-    <row r="125" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K125" s="2"/>
-    </row>
-    <row r="126" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K126" s="2"/>
-    </row>
-    <row r="127" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K127" s="2"/>
-    </row>
-    <row r="128" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K128" s="2"/>
+      <c r="A96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" t="s">
+        <v>195</v>
+      </c>
+      <c r="D96" t="s">
+        <v>192</v>
+      </c>
+      <c r="E96" t="s">
+        <v>207</v>
+      </c>
+      <c r="F96" t="s">
+        <v>192</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="2"/>
+        <v>kt-ta81.jpg</v>
+      </c>
+      <c r="H96">
+        <v>75000</v>
+      </c>
+      <c r="I96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K96" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('kt-ta81','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 8 Tập 1',NULL,'kt-ta81.jpg',75000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>204</v>
+      </c>
+      <c r="B97" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" t="s">
+        <v>195</v>
+      </c>
+      <c r="D97" t="s">
+        <v>192</v>
+      </c>
+      <c r="E97" t="s">
+        <v>208</v>
+      </c>
+      <c r="F97" t="s">
+        <v>192</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="2"/>
+        <v>kt-ta82.jpg</v>
+      </c>
+      <c r="H97">
+        <v>75000</v>
+      </c>
+      <c r="I97" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K97" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('kt-ta82','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 8 Tập 2',NULL,'kt-ta82.jpg',75000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>205</v>
+      </c>
+      <c r="B98" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" t="s">
+        <v>195</v>
+      </c>
+      <c r="D98" t="s">
+        <v>192</v>
+      </c>
+      <c r="E98" t="s">
+        <v>209</v>
+      </c>
+      <c r="F98" t="s">
+        <v>192</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="2"/>
+        <v>kt-ta91.jpg</v>
+      </c>
+      <c r="H98">
+        <v>85000</v>
+      </c>
+      <c r="I98" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K98" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('kt-ta91','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 9 Tập 1',NULL,'kt-ta91.jpg',85000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" t="s">
+        <v>195</v>
+      </c>
+      <c r="D99" t="s">
+        <v>192</v>
+      </c>
+      <c r="E99" t="s">
+        <v>210</v>
+      </c>
+      <c r="F99" t="s">
+        <v>192</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="2"/>
+        <v>kt-ta92.jpg</v>
+      </c>
+      <c r="H99">
+        <v>85000</v>
+      </c>
+      <c r="I99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K99" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('kt-ta92','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 9 Tập 2',NULL,'kt-ta92.jpg',85000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>212</v>
+      </c>
+      <c r="B100" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100" t="s">
+        <v>192</v>
+      </c>
+      <c r="E100" t="s">
+        <v>211</v>
+      </c>
+      <c r="F100" t="s">
+        <v>192</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="2"/>
+        <v>gd-ta10.jpg</v>
+      </c>
+      <c r="H100">
+        <v>90000</v>
+      </c>
+      <c r="I100" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K100" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('gd-ta10','DHQGHN','TK',NULL,N'Luyện Giải Bộ Đề Bồi Dưỡng Học Sinh Giỏi Tiếng Anh Lớp 10',NULL,'gd-ta10.jpg',90000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>214</v>
+      </c>
+      <c r="B101" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" t="s">
+        <v>195</v>
+      </c>
+      <c r="D101" t="s">
+        <v>192</v>
+      </c>
+      <c r="E101" t="s">
+        <v>213</v>
+      </c>
+      <c r="F101" t="s">
+        <v>192</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="2"/>
+        <v>gd-ta11.jpg</v>
+      </c>
+      <c r="H101">
+        <v>90000</v>
+      </c>
+      <c r="I101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K101" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('gd-ta11','DHQGHN','TK',NULL,N'Luyện Giải Bộ Đề Bồi Dưỡng Học Sinh Giỏi Tiếng Anh Lớp 11',NULL,'gd-ta11.jpg',90000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" t="s">
+        <v>194</v>
+      </c>
+      <c r="C102" t="s">
+        <v>195</v>
+      </c>
+      <c r="D102" t="s">
+        <v>192</v>
+      </c>
+      <c r="E102" t="s">
+        <v>215</v>
+      </c>
+      <c r="F102" t="s">
+        <v>192</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="2"/>
+        <v>gd-ta12.jpg</v>
+      </c>
+      <c r="H102">
+        <v>90000</v>
+      </c>
+      <c r="I102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K102" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('gd-ta12','DHQGHN','TK',NULL,N'Luyện Giải Bộ Đề Bồi Dưỡng Học Sinh Giỏi Tiếng Anh Lớp 12',NULL,'gd-ta12.jpg',90000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>218</v>
+      </c>
+      <c r="B103" t="s">
+        <v>194</v>
+      </c>
+      <c r="C103" t="s">
+        <v>195</v>
+      </c>
+      <c r="D103" t="s">
+        <v>192</v>
+      </c>
+      <c r="E103" t="s">
+        <v>217</v>
+      </c>
+      <c r="F103" t="s">
+        <v>192</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="2"/>
+        <v>ktdgnl-t6.jpg</v>
+      </c>
+      <c r="H103">
+        <v>63000</v>
+      </c>
+      <c r="I103" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K103" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('ktdgnl-t6','DHQGHN','TK',NULL,N'Ôn Tập Kiểm Tra Đánh Giá Năng Lực Môn Toán Lớp 6',NULL,'ktdgnl-t6.jpg',63000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>221</v>
+      </c>
+      <c r="B104" t="s">
+        <v>220</v>
+      </c>
+      <c r="C104" t="s">
+        <v>195</v>
+      </c>
+      <c r="D104" t="s">
+        <v>192</v>
+      </c>
+      <c r="E104" t="s">
+        <v>219</v>
+      </c>
+      <c r="F104" t="s">
+        <v>192</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="2"/>
+        <v>kt-t6.jpg</v>
+      </c>
+      <c r="H104">
+        <v>65000</v>
+      </c>
+      <c r="I104" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K104" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('kt-t6','DN','TK',NULL,N'60 Đề Kiểm Tra Toán 6 (Theo Chương Trình Giáo Dục Phổ Thông Mới)',NULL,'kt-t6.jpg',65000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>224</v>
+      </c>
+      <c r="B105" t="s">
+        <v>194</v>
+      </c>
+      <c r="C105" t="s">
+        <v>195</v>
+      </c>
+      <c r="D105" t="s">
+        <v>192</v>
+      </c>
+      <c r="E105" t="s">
+        <v>222</v>
+      </c>
+      <c r="F105" t="s">
+        <v>192</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="2"/>
+        <v>ppg-t71.jpg</v>
+      </c>
+      <c r="H105">
+        <v>65000</v>
+      </c>
+      <c r="I105" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K105" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('ppg-t71','DHQGHN','TK',NULL,N'Hướng Dẫn Học &amp; Phương Pháp Giải Toán Lớp 7 - Tập 1 (Bám Sát SGK Chân Trời Sáng Tạo)',NULL,'ppg-t71.jpg',65000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>225</v>
+      </c>
+      <c r="B106" t="s">
+        <v>194</v>
+      </c>
+      <c r="C106" t="s">
+        <v>195</v>
+      </c>
+      <c r="D106" t="s">
+        <v>192</v>
+      </c>
+      <c r="E106" t="s">
+        <v>223</v>
+      </c>
+      <c r="F106" t="s">
+        <v>192</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="2"/>
+        <v>ppg-t72.jpg</v>
+      </c>
+      <c r="H106">
+        <v>65000</v>
+      </c>
+      <c r="I106" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K106" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('ppg-t72','DHQGHN','TK',NULL,N'Hướng Dẫn Học &amp; Phương Pháp Giải Toán Lớp 7 - Tập 2 (Bám Sát SGK Chân Trời Sáng Tạo)',NULL,'ppg-t72.jpg',65000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>227</v>
+      </c>
+      <c r="B107" t="s">
+        <v>194</v>
+      </c>
+      <c r="C107" t="s">
+        <v>195</v>
+      </c>
+      <c r="D107" t="s">
+        <v>192</v>
+      </c>
+      <c r="E107" t="s">
+        <v>226</v>
+      </c>
+      <c r="F107" t="s">
+        <v>192</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="2"/>
+        <v>kt-t7.jpg</v>
+      </c>
+      <c r="H107">
+        <v>55000</v>
+      </c>
+      <c r="I107" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K107" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('kt-t7','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Toán 7 (Bám Sát SGK Chân Trời Sáng Tạo)',NULL,'kt-t7.jpg',55000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>229</v>
+      </c>
+      <c r="B108" t="s">
+        <v>230</v>
+      </c>
+      <c r="C108" t="s">
+        <v>195</v>
+      </c>
+      <c r="D108" t="s">
+        <v>192</v>
+      </c>
+      <c r="E108" t="s">
+        <v>228</v>
+      </c>
+      <c r="F108" t="s">
+        <v>192</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="2"/>
+        <v>100kt-t8.jpg</v>
+      </c>
+      <c r="H108">
+        <v>80000</v>
+      </c>
+      <c r="I108" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K108" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M108" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('100kt-t8','THTPHCM','TK',NULL,N'100 Đề Kiểm Tra Toán 8',NULL,'100kt-t8.jpg',80000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>231</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" t="s">
+        <v>195</v>
+      </c>
+      <c r="D109" t="s">
+        <v>192</v>
+      </c>
+      <c r="E109" t="s">
+        <v>232</v>
+      </c>
+      <c r="F109" t="s">
+        <v>192</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="2"/>
+        <v>kt-t8.jpg</v>
+      </c>
+      <c r="H109">
+        <v>43000</v>
+      </c>
+      <c r="I109" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K109" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M109" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('kt-t8','DN','TK',NULL,N'Đề Kiểm Tra Định Kì Toán 8',NULL,'kt-t8.jpg',43000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>234</v>
+      </c>
+      <c r="B110" t="s">
+        <v>194</v>
+      </c>
+      <c r="C110" t="s">
+        <v>195</v>
+      </c>
+      <c r="D110" t="s">
+        <v>192</v>
+      </c>
+      <c r="E110" t="s">
+        <v>233</v>
+      </c>
+      <c r="F110" t="s">
+        <v>192</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="2"/>
+        <v>kt-t8-1.jpg</v>
+      </c>
+      <c r="H110">
+        <v>90000</v>
+      </c>
+      <c r="I110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K110" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M110" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('kt-t8-1','DHQGHN','TK',NULL,N'Bộ Đề Kiểm tra Toán 8',NULL,'kt-t8-1.jpg',90000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>237</v>
+      </c>
+      <c r="B111" t="s">
+        <v>236</v>
+      </c>
+      <c r="C111" t="s">
+        <v>195</v>
+      </c>
+      <c r="D111" t="s">
+        <v>192</v>
+      </c>
+      <c r="E111" t="s">
+        <v>235</v>
+      </c>
+      <c r="F111" t="s">
+        <v>192</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="2"/>
+        <v>kttt-t9.jpg</v>
+      </c>
+      <c r="H111">
+        <v>100000</v>
+      </c>
+      <c r="I111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K111" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M111" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('kttt-t9','TN','TK',NULL,N'Bộ Đề Kiểm Tra Môn Toán 9 Theo Hướng Thực Tế, Tích Hợp',NULL,'kttt-t9.jpg',100000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>239</v>
+      </c>
+      <c r="B112" t="s">
+        <v>220</v>
+      </c>
+      <c r="C112" t="s">
+        <v>195</v>
+      </c>
+      <c r="D112" t="s">
+        <v>192</v>
+      </c>
+      <c r="E112" t="s">
+        <v>238</v>
+      </c>
+      <c r="F112" t="s">
+        <v>192</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="2"/>
+        <v>dotcc-t9.jpg</v>
+      </c>
+      <c r="H112">
+        <v>51000</v>
+      </c>
+      <c r="I112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K112" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M112" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('dotcc-t9','DN','TK',NULL,N'Bộ Đề Ôn Thi Môn Toán 9 Vào Lớp 10',NULL,'dotcc-t9.jpg',51000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>241</v>
+      </c>
+      <c r="B113" t="s">
+        <v>194</v>
+      </c>
+      <c r="C113" t="s">
+        <v>195</v>
+      </c>
+      <c r="D113" t="s">
+        <v>192</v>
+      </c>
+      <c r="E113" t="s">
+        <v>240</v>
+      </c>
+      <c r="F113" t="s">
+        <v>192</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="2"/>
+        <v>cp-ltl10-t9.jpg</v>
+      </c>
+      <c r="H113">
+        <v>135000</v>
+      </c>
+      <c r="I113" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K113" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M113" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('cp-ltl10-t9','DHQGHN','TK',NULL,N'Chinh Phục Luyện Thi Vào Lớp 10 Môn Toán Theo Chủ Đề',NULL,'cp-ltl10-t9.jpg',135000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>243</v>
+      </c>
+      <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" t="s">
+        <v>195</v>
+      </c>
+      <c r="D114" t="s">
+        <v>192</v>
+      </c>
+      <c r="E114" t="s">
+        <v>242</v>
+      </c>
+      <c r="F114" t="s">
+        <v>192</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="2"/>
+        <v>std-lthsg-t9.jpg</v>
+      </c>
+      <c r="H114">
+        <v>126000</v>
+      </c>
+      <c r="I114" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K114" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M114" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('std-lthsg-t9','THTPHCM','TK',NULL,N'Siêu Tư Duy Luyện Đề Chuẩn Bị Kỳ Thi HSG Toán Lớp 9',NULL,'std-lthsg-t9.jpg',126000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>245</v>
+      </c>
+      <c r="B115" t="s">
+        <v>194</v>
+      </c>
+      <c r="C115" t="s">
+        <v>195</v>
+      </c>
+      <c r="D115" t="s">
+        <v>192</v>
+      </c>
+      <c r="E115" t="s">
+        <v>244</v>
+      </c>
+      <c r="F115" t="s">
+        <v>192</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="2"/>
+        <v>tk-t101.jpg</v>
+      </c>
+      <c r="H115">
+        <v>90000</v>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K115" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M115" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('tk-t101','DHQGHN','TK',NULL,N'Sách Tham Khảo Toán 10 - Quyển 1 (Biên Soạn Theo Chương Trình GDPT Mới)',NULL,'tk-t101.jpg',90000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>246</v>
+      </c>
+      <c r="B116" t="s">
+        <v>194</v>
+      </c>
+      <c r="C116" t="s">
+        <v>195</v>
+      </c>
+      <c r="D116" t="s">
+        <v>192</v>
+      </c>
+      <c r="E116" t="s">
+        <v>247</v>
+      </c>
+      <c r="F116" t="s">
+        <v>192</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="2"/>
+        <v>tk-t102.jpg</v>
+      </c>
+      <c r="H116">
+        <v>100000</v>
+      </c>
+      <c r="I116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K116" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M116" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('tk-t102','DHQGHN','TK',NULL,N'Sách Tham Khảo Toán 10 - Quyển 2 (Biên Soạn Theo Chương Trình GDPT Mới)',NULL,'tk-t102.jpg',100000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>249</v>
+      </c>
+      <c r="B117" t="s">
+        <v>194</v>
+      </c>
+      <c r="C117" t="s">
+        <v>195</v>
+      </c>
+      <c r="D117" t="s">
+        <v>192</v>
+      </c>
+      <c r="E117" t="s">
+        <v>248</v>
+      </c>
+      <c r="F117" t="s">
+        <v>192</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="2"/>
+        <v>bd-th-t10.jpg</v>
+      </c>
+      <c r="H117">
+        <v>112000</v>
+      </c>
+      <c r="I117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K117" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M117" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('bd-th-t10','DHQGHN','TK',NULL,N'Bồi Dưỡng Năng Lực Tự Học Toán 10',NULL,'bd-th-t10.jpg',112000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>252</v>
+      </c>
+      <c r="B118" t="s">
+        <v>220</v>
+      </c>
+      <c r="C118" t="s">
+        <v>195</v>
+      </c>
+      <c r="D118" t="s">
+        <v>192</v>
+      </c>
+      <c r="E118" t="s">
+        <v>250</v>
+      </c>
+      <c r="F118" t="s">
+        <v>192</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="2"/>
+        <v>ppg-hh10.jpg</v>
+      </c>
+      <c r="H118">
+        <v>40000</v>
+      </c>
+      <c r="I118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K118" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M118" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('ppg-hh10','DN','TK',NULL,N'Phân Loại Và Phương Pháp Giải Các Dạng Toán Hình Học 10 (Cơ Bản &amp; Nâng Cao)',NULL,'ppg-hh10.jpg',40000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>253</v>
+      </c>
+      <c r="B119" t="s">
+        <v>194</v>
+      </c>
+      <c r="C119" t="s">
+        <v>195</v>
+      </c>
+      <c r="D119" t="s">
+        <v>192</v>
+      </c>
+      <c r="E119" t="s">
+        <v>251</v>
+      </c>
+      <c r="F119" t="s">
+        <v>192</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="2"/>
+        <v>ppg-ds11.jpg</v>
+      </c>
+      <c r="H119">
+        <v>97000</v>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K119" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M119" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('ppg-ds11','DHQGHN','TK',NULL,N'Phương Pháp Giải Các Chuyên Đề Căn Bản Đại Số - Giải Tích 11',NULL,'ppg-ds11.jpg',97000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>254</v>
+      </c>
+      <c r="B120" t="s">
+        <v>194</v>
+      </c>
+      <c r="C120" t="s">
+        <v>195</v>
+      </c>
+      <c r="D120" t="s">
+        <v>192</v>
+      </c>
+      <c r="E120" t="s">
+        <v>256</v>
+      </c>
+      <c r="F120" t="s">
+        <v>192</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="2"/>
+        <v>ppg-hh11.jpg</v>
+      </c>
+      <c r="H120">
+        <v>56000</v>
+      </c>
+      <c r="I120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K120" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M120" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('ppg-hh11','DHQGHN','TK',NULL,N'Phân Dạng &amp; Phương pháp Giải Các Dạng Bài Tập Trắc Nghiệm - Hình Học 11',NULL,'ppg-hh11.jpg',56000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>258</v>
+      </c>
+      <c r="B121" t="s">
+        <v>194</v>
+      </c>
+      <c r="C121" t="s">
+        <v>195</v>
+      </c>
+      <c r="D121" t="s">
+        <v>192</v>
+      </c>
+      <c r="E121" t="s">
+        <v>255</v>
+      </c>
+      <c r="F121" t="s">
+        <v>192</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="2"/>
+        <v>tn-t11.jpg</v>
+      </c>
+      <c r="H121">
+        <v>106000</v>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K121" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M121" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('tn-t11','DHQGHN','TK',NULL,N'Trắc Nghiệm Chuyên Đề Đại Số - Giải Tích &amp; Hình Học 11',NULL,'tn-t11.jpg',106000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>259</v>
+      </c>
+      <c r="B122" t="s">
+        <v>194</v>
+      </c>
+      <c r="C122" t="s">
+        <v>195</v>
+      </c>
+      <c r="D122" t="s">
+        <v>192</v>
+      </c>
+      <c r="E122" t="s">
+        <v>257</v>
+      </c>
+      <c r="F122" t="s">
+        <v>192</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="2"/>
+        <v>vdu-nc-t11.jpg</v>
+      </c>
+      <c r="H122">
+        <v>70000</v>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K122" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M122" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('vdu-nc-t11','DHQGHN','TK',NULL,N'15 Chủ Đề Vận Dụng &amp; Nâng Cao Toán Trắc Nghiệm 11',NULL,'vdu-nc-t11.jpg',70000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>261</v>
+      </c>
+      <c r="B123" t="s">
+        <v>194</v>
+      </c>
+      <c r="C123" t="s">
+        <v>195</v>
+      </c>
+      <c r="D123" t="s">
+        <v>192</v>
+      </c>
+      <c r="E123" t="s">
+        <v>260</v>
+      </c>
+      <c r="F123" t="s">
+        <v>192</v>
+      </c>
+      <c r="G123" t="str">
+        <f>A123&amp;".jpg"</f>
+        <v>tn-cd-t12.jpg</v>
+      </c>
+      <c r="H123">
+        <v>200000</v>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K123" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M123" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('tn-cd-t12','DHQGHN','TK',NULL,N'Trắc Nghiệm Chuyên Đề Giải Tích Và Hình Học 12',NULL,'tn-cd-t12.jpg',200000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>263</v>
+      </c>
+      <c r="B124" t="s">
+        <v>236</v>
+      </c>
+      <c r="C124" t="s">
+        <v>195</v>
+      </c>
+      <c r="D124" t="s">
+        <v>192</v>
+      </c>
+      <c r="E124" t="s">
+        <v>262</v>
+      </c>
+      <c r="F124" t="s">
+        <v>192</v>
+      </c>
+      <c r="G124" t="str">
+        <f>A124&amp;".jpg"</f>
+        <v>50dmh-t12.jpg</v>
+      </c>
+      <c r="H124">
+        <v>180000</v>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K124" s="3">
+        <v>44993.412780362698</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M124" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('50dmh-t12','TN','TK',NULL,N'50 Đề Minh Họa 2023 Môn Toán Học',NULL,'50dmh-t12.jpg',180000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>265</v>
+      </c>
+      <c r="B125" t="s">
+        <v>194</v>
+      </c>
+      <c r="C125" t="s">
+        <v>195</v>
+      </c>
+      <c r="D125" t="s">
+        <v>192</v>
+      </c>
+      <c r="E125" t="s">
+        <v>264</v>
+      </c>
+      <c r="F125" t="s">
+        <v>192</v>
+      </c>
+      <c r="G125" t="str">
+        <f>A125&amp;".jpg"</f>
+        <v>ppg-ds12.jpg</v>
+      </c>
+      <c r="H125">
+        <v>114000</v>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K125" s="3">
+        <v>44993.412777777776</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M125" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('ppg-ds12','DHQGHN','TK',NULL,N'Phương Pháp Giải Toán Chuyên Đề Giải Tích 12',NULL,'ppg-ds12.jpg',114000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>267</v>
+      </c>
+      <c r="B126" t="s">
+        <v>220</v>
+      </c>
+      <c r="C126" t="s">
+        <v>195</v>
+      </c>
+      <c r="D126" t="s">
+        <v>192</v>
+      </c>
+      <c r="E126" t="s">
+        <v>266</v>
+      </c>
+      <c r="F126" t="s">
+        <v>192</v>
+      </c>
+      <c r="G126" t="str">
+        <f>A126&amp;".jpg"</f>
+        <v>o-t12.jpg</v>
+      </c>
+      <c r="H126">
+        <v>180000</v>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K126" s="3">
+        <v>44993.412777777776</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M126" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO Sach VALUES('o-t12','DN','TK',NULL,N'Tổng Ôn Toán Học (Tái Bản 2023)',NULL,'o-t12.jpg',180000,1,NULL,'',NULL)</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K127" s="4"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K128" s="4"/>
     </row>
     <row r="129" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K129" s="2"/>
+      <c r="K129" s="4"/>
     </row>
     <row r="130" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K130" s="2"/>
+      <c r="K130" s="4"/>
     </row>
     <row r="131" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K131" s="2"/>
+      <c r="K131" s="4"/>
     </row>
     <row r="132" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K132" s="2"/>
+      <c r="K132" s="4"/>
     </row>
     <row r="133" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K133" s="2"/>
+      <c r="K133" s="4"/>
     </row>
     <row r="134" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K134" s="2"/>
+      <c r="K134" s="4"/>
     </row>
     <row r="135" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K135" s="2"/>
+      <c r="K135" s="4"/>
     </row>
     <row r="136" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K136" s="2"/>
+      <c r="K136" s="4"/>
     </row>
     <row r="137" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K137" s="2"/>
+      <c r="K137" s="4"/>
     </row>
     <row r="138" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K138" s="2"/>
+      <c r="K138" s="4"/>
     </row>
     <row r="139" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K139" s="2"/>
+      <c r="K139" s="4"/>
     </row>
     <row r="140" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K140" s="2"/>
+      <c r="K140" s="4"/>
     </row>
     <row r="141" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K141" s="2"/>
+      <c r="K141" s="4"/>
     </row>
     <row r="142" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K142" s="2"/>
+      <c r="K142" s="4"/>
     </row>
     <row r="143" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K143" s="2"/>
+      <c r="K143" s="4"/>
     </row>
     <row r="144" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K144" s="2"/>
+      <c r="K144" s="4"/>
     </row>
     <row r="145" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K145" s="2"/>
+      <c r="K145" s="4"/>
     </row>
     <row r="146" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K146" s="2"/>
+      <c r="K146" s="4"/>
     </row>
     <row r="147" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K147" s="2"/>
+      <c r="K147" s="4"/>
     </row>
     <row r="148" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K148" s="2"/>
+      <c r="K148" s="4"/>
     </row>
     <row r="149" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K149" s="2"/>
+      <c r="K149" s="4"/>
     </row>
     <row r="150" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K150" s="2"/>
+      <c r="K150" s="4"/>
     </row>
     <row r="151" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K151" s="2"/>
+      <c r="K151" s="4"/>
     </row>
     <row r="152" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K152" s="2"/>
+      <c r="K152" s="4"/>
     </row>
     <row r="153" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K153" s="2"/>
+      <c r="K153" s="4"/>
     </row>
     <row r="154" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K154" s="2"/>
+      <c r="K154" s="4"/>
     </row>
     <row r="155" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K155" s="2"/>
+      <c r="K155" s="4"/>
     </row>
     <row r="156" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K156" s="2"/>
+      <c r="K156" s="4"/>
     </row>
     <row r="157" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K157" s="2"/>
+      <c r="K157" s="4"/>
     </row>
     <row r="158" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K158" s="2"/>
+      <c r="K158" s="4"/>
     </row>
     <row r="159" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K159" s="2"/>
+      <c r="K159" s="4"/>
     </row>
     <row r="160" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K160" s="2"/>
+      <c r="K160" s="4"/>
     </row>
     <row r="161" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K161" s="2"/>
+      <c r="K161" s="4"/>
     </row>
     <row r="162" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K162" s="2"/>
+      <c r="K162" s="4"/>
     </row>
     <row r="163" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K163" s="2"/>
+      <c r="K163" s="4"/>
     </row>
     <row r="164" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K164" s="2"/>
+      <c r="K164" s="4"/>
     </row>
     <row r="165" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K165" s="2"/>
+      <c r="K165" s="4"/>
     </row>
     <row r="166" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K166" s="2"/>
+      <c r="K166" s="4"/>
     </row>
     <row r="167" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K167" s="2"/>
+      <c r="K167" s="4"/>
     </row>
     <row r="168" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K168" s="2"/>
+      <c r="K168" s="4"/>
     </row>
     <row r="169" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K169" s="2"/>
+      <c r="K169" s="4"/>
     </row>
     <row r="170" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K170" s="2"/>
+      <c r="K170" s="4"/>
     </row>
     <row r="171" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K171" s="2"/>
+      <c r="K171" s="4"/>
     </row>
     <row r="172" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K172" s="2"/>
+      <c r="K172" s="4"/>
     </row>
     <row r="173" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K173" s="2"/>
+      <c r="K173" s="4"/>
     </row>
     <row r="174" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K174" s="2"/>
+      <c r="K174" s="4"/>
     </row>
     <row r="175" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K175" s="2"/>
+      <c r="K175" s="4"/>
     </row>
     <row r="176" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K176" s="2"/>
+      <c r="K176" s="4"/>
     </row>
     <row r="177" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K177" s="2"/>
+      <c r="K177" s="4"/>
     </row>
     <row r="178" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K178" s="2"/>
+      <c r="K178" s="4"/>
     </row>
     <row r="179" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K179" s="2"/>
+      <c r="K179" s="4"/>
     </row>
     <row r="180" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K180" s="2"/>
+      <c r="K180" s="4"/>
     </row>
     <row r="181" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K181" s="2"/>
+      <c r="K181" s="4"/>
     </row>
     <row r="182" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K182" s="2"/>
+      <c r="K182" s="4"/>
     </row>
     <row r="183" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K183" s="2"/>
+      <c r="K183" s="4"/>
     </row>
     <row r="184" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K184" s="2"/>
+      <c r="K184" s="4"/>
     </row>
     <row r="185" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K185" s="2"/>
+      <c r="K185" s="4"/>
     </row>
     <row r="186" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K186" s="2"/>
+      <c r="K186" s="4"/>
     </row>
     <row r="187" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K187" s="2"/>
+      <c r="K187" s="4"/>
     </row>
     <row r="188" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K188" s="2"/>
+      <c r="K188" s="4"/>
     </row>
     <row r="189" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K189" s="2"/>
+      <c r="K189" s="4"/>
     </row>
     <row r="190" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K190" s="2"/>
+      <c r="K190" s="4"/>
     </row>
     <row r="191" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K191" s="2"/>
+      <c r="K191" s="4"/>
     </row>
     <row r="192" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K192" s="2"/>
+      <c r="K192" s="4"/>
     </row>
     <row r="193" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K193" s="2"/>
+      <c r="K193" s="4"/>
     </row>
     <row r="194" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K194" s="2"/>
+      <c r="K194" s="4"/>
     </row>
     <row r="195" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K195" s="2"/>
+      <c r="K195" s="4"/>
     </row>
     <row r="196" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K196" s="2"/>
+      <c r="K196" s="4"/>
     </row>
     <row r="197" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K197" s="2"/>
+      <c r="K197" s="4"/>
     </row>
     <row r="198" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K198" s="2"/>
+      <c r="K198" s="4"/>
     </row>
     <row r="199" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K199" s="2"/>
+      <c r="K199" s="4"/>
     </row>
     <row r="200" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K200" s="2"/>
+      <c r="K200" s="4"/>
     </row>
     <row r="201" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K201" s="2"/>
+      <c r="K201" s="4"/>
     </row>
     <row r="202" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K202" s="2"/>
+      <c r="K202" s="4"/>
     </row>
     <row r="203" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K203" s="2"/>
+      <c r="K203" s="4"/>
     </row>
     <row r="204" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K204" s="2"/>
+      <c r="K204" s="4"/>
     </row>
     <row r="205" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K205" s="2"/>
+      <c r="K205" s="4"/>
     </row>
     <row r="206" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K206" s="2"/>
+      <c r="K206" s="4"/>
     </row>
     <row r="207" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K207" s="2"/>
+      <c r="K207" s="4"/>
     </row>
     <row r="208" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K208" s="2"/>
+      <c r="K208" s="4"/>
     </row>
     <row r="209" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K209" s="2"/>
+      <c r="K209" s="4"/>
     </row>
     <row r="210" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K210" s="2"/>
+      <c r="K210" s="4"/>
     </row>
     <row r="211" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K211" s="2"/>
+      <c r="K211" s="4"/>
     </row>
     <row r="212" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K212" s="2"/>
+      <c r="K212" s="4"/>
     </row>
     <row r="213" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K213" s="2"/>
+      <c r="K213" s="4"/>
     </row>
     <row r="214" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K214" s="2"/>
+      <c r="K214" s="4"/>
     </row>
     <row r="215" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K215" s="2"/>
+      <c r="K215" s="4"/>
     </row>
     <row r="216" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K216" s="2"/>
+      <c r="K216" s="4"/>
     </row>
     <row r="217" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K217" s="2"/>
+      <c r="K217" s="4"/>
     </row>
     <row r="218" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K218" s="2"/>
+      <c r="K218" s="4"/>
     </row>
     <row r="219" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K219" s="2"/>
+      <c r="K219" s="4"/>
     </row>
     <row r="220" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K220" s="2"/>
+      <c r="K220" s="4"/>
     </row>
     <row r="221" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K221" s="2"/>
+      <c r="K221" s="4"/>
     </row>
     <row r="222" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K222" s="2"/>
+      <c r="K222" s="4"/>
     </row>
     <row r="223" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K223" s="2"/>
+      <c r="K223" s="4"/>
     </row>
     <row r="224" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K224" s="2"/>
+      <c r="K224" s="4"/>
     </row>
     <row r="225" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K225" s="2"/>
+      <c r="K225" s="4"/>
     </row>
     <row r="226" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K226" s="2"/>
+      <c r="K226" s="4"/>
     </row>
     <row r="227" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K227" s="2"/>
+      <c r="K227" s="4"/>
     </row>
     <row r="228" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K228" s="2"/>
+      <c r="K228" s="4"/>
     </row>
     <row r="229" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K229" s="2"/>
+      <c r="K229" s="4"/>
     </row>
     <row r="230" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K230" s="2"/>
+      <c r="K230" s="4"/>
     </row>
     <row r="231" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K231" s="2"/>
+      <c r="K231" s="4"/>
     </row>
     <row r="232" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K232" s="2"/>
+      <c r="K232" s="4"/>
     </row>
     <row r="233" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K233" s="2"/>
+      <c r="K233" s="4"/>
     </row>
     <row r="234" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K234" s="2"/>
+      <c r="K234" s="4"/>
     </row>
     <row r="235" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K235" s="2"/>
+      <c r="K235" s="4"/>
     </row>
     <row r="236" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K236" s="2"/>
+      <c r="K236" s="4"/>
     </row>
     <row r="237" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K237" s="2"/>
+      <c r="K237" s="4"/>
     </row>
     <row r="238" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K238" s="2"/>
+      <c r="K238" s="4"/>
     </row>
     <row r="239" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K239" s="2"/>
+      <c r="K239" s="4"/>
     </row>
     <row r="240" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K240" s="2"/>
+      <c r="K240" s="4"/>
     </row>
     <row r="241" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K241" s="2"/>
+      <c r="K241" s="4"/>
     </row>
     <row r="242" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K242" s="2"/>
+      <c r="K242" s="4"/>
     </row>
     <row r="243" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K243" s="2"/>
+      <c r="K243" s="4"/>
     </row>
     <row r="244" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K244" s="2"/>
+      <c r="K244" s="4"/>
     </row>
     <row r="245" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K245" s="2"/>
+      <c r="K245" s="4"/>
     </row>
     <row r="246" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K246" s="2"/>
+      <c r="K246" s="4"/>
     </row>
     <row r="247" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K247" s="2"/>
+      <c r="K247" s="4"/>
     </row>
     <row r="248" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K248" s="2"/>
+      <c r="K248" s="4"/>
     </row>
     <row r="249" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K249" s="2"/>
+      <c r="K249" s="4"/>
     </row>
     <row r="250" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K250" s="2"/>
+      <c r="K250" s="4"/>
     </row>
     <row r="251" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K251" s="2"/>
+      <c r="K251" s="4"/>
     </row>
     <row r="252" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K252" s="2"/>
+      <c r="K252" s="4"/>
     </row>
     <row r="253" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K253" s="2"/>
+      <c r="K253" s="4"/>
     </row>
     <row r="254" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K254" s="2"/>
+      <c r="K254" s="4"/>
     </row>
     <row r="255" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K255" s="2"/>
+      <c r="K255" s="4"/>
     </row>
     <row r="256" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K256" s="2"/>
+      <c r="K256" s="4"/>
     </row>
     <row r="257" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K257" s="2"/>
+      <c r="K257" s="4"/>
     </row>
     <row r="258" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K258" s="2"/>
+      <c r="K258" s="4"/>
     </row>
     <row r="259" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K259" s="2"/>
+      <c r="K259" s="4"/>
     </row>
     <row r="260" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K260" s="2"/>
+      <c r="K260" s="4"/>
     </row>
     <row r="261" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K261" s="2"/>
+      <c r="K261" s="4"/>
     </row>
     <row r="262" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K262" s="2"/>
+      <c r="K262" s="4"/>
     </row>
     <row r="263" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K263" s="2"/>
+      <c r="K263" s="4"/>
     </row>
     <row r="264" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K264" s="2"/>
+      <c r="K264" s="4"/>
     </row>
     <row r="265" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K265" s="2"/>
+      <c r="K265" s="4"/>
     </row>
     <row r="266" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K266" s="2"/>
+      <c r="K266" s="4"/>
     </row>
     <row r="267" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K267" s="2"/>
+      <c r="K267" s="4"/>
     </row>
     <row r="268" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K268" s="2"/>
+      <c r="K268" s="4"/>
     </row>
     <row r="269" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K269" s="2"/>
+      <c r="K269" s="4"/>
     </row>
     <row r="270" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K270" s="2"/>
+      <c r="K270" s="4"/>
     </row>
     <row r="271" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K271" s="2"/>
+      <c r="K271" s="4"/>
     </row>
     <row r="272" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K272" s="2"/>
+      <c r="K272" s="4"/>
     </row>
     <row r="273" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K273" s="2"/>
+      <c r="K273" s="4"/>
     </row>
     <row r="274" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K274" s="2"/>
+      <c r="K274" s="4"/>
     </row>
     <row r="275" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K275" s="2"/>
+      <c r="K275" s="4"/>
     </row>
     <row r="276" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K276" s="2"/>
+      <c r="K276" s="4"/>
     </row>
     <row r="277" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K277" s="2"/>
+      <c r="K277" s="4"/>
     </row>
     <row r="278" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K278" s="2"/>
+      <c r="K278" s="4"/>
     </row>
     <row r="279" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K279" s="2"/>
+      <c r="K279" s="4"/>
     </row>
     <row r="280" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K280" s="2"/>
+      <c r="K280" s="4"/>
     </row>
     <row r="281" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K281" s="2"/>
+      <c r="K281" s="4"/>
     </row>
     <row r="282" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K282" s="2"/>
+      <c r="K282" s="4"/>
     </row>
     <row r="283" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K283" s="2"/>
+      <c r="K283" s="4"/>
     </row>
     <row r="284" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K284" s="2"/>
+      <c r="K284" s="4"/>
     </row>
     <row r="285" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K285" s="2"/>
+      <c r="K285" s="4"/>
     </row>
     <row r="286" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K286" s="2"/>
+      <c r="K286" s="4"/>
     </row>
     <row r="287" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K287" s="2"/>
+      <c r="K287" s="4"/>
     </row>
     <row r="288" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K288" s="2"/>
+      <c r="K288" s="4"/>
     </row>
     <row r="289" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K289" s="2"/>
+      <c r="K289" s="4"/>
     </row>
     <row r="290" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K290" s="2"/>
+      <c r="K290" s="4"/>
     </row>
     <row r="291" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K291" s="2"/>
+      <c r="K291" s="4"/>
     </row>
     <row r="292" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K292" s="2"/>
+      <c r="K292" s="4"/>
     </row>
     <row r="293" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K293" s="2"/>
+      <c r="K293" s="4"/>
     </row>
     <row r="294" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K294" s="2"/>
+      <c r="K294" s="4"/>
     </row>
     <row r="295" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K295" s="2"/>
+      <c r="K295" s="4"/>
     </row>
     <row r="296" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K296" s="2"/>
+      <c r="K296" s="4"/>
     </row>
     <row r="297" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K297" s="2"/>
+      <c r="K297" s="4"/>
     </row>
     <row r="298" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K298" s="2"/>
+      <c r="K298" s="4"/>
     </row>
     <row r="299" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K299" s="2"/>
+      <c r="K299" s="4"/>
     </row>
     <row r="300" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K300" s="2"/>
+      <c r="K300" s="4"/>
     </row>
     <row r="301" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K301" s="2"/>
+      <c r="K301" s="4"/>
     </row>
     <row r="302" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K302" s="2"/>
+      <c r="K302" s="4"/>
     </row>
     <row r="303" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K303" s="2"/>
+      <c r="K303" s="4"/>
     </row>
     <row r="304" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K304" s="2"/>
+      <c r="K304" s="4"/>
     </row>
     <row r="305" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K305" s="2"/>
+      <c r="K305" s="4"/>
     </row>
     <row r="306" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K306" s="2"/>
+      <c r="K306" s="4"/>
     </row>
     <row r="307" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K307" s="2"/>
+      <c r="K307" s="4"/>
     </row>
     <row r="308" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K308" s="2"/>
+      <c r="K308" s="4"/>
     </row>
     <row r="309" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K309" s="2"/>
+      <c r="K309" s="4"/>
     </row>
     <row r="310" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K310" s="2"/>
+      <c r="K310" s="4"/>
     </row>
     <row r="311" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K311" s="2"/>
+      <c r="K311" s="4"/>
     </row>
     <row r="312" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K312" s="2"/>
+      <c r="K312" s="4"/>
     </row>
     <row r="313" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K313" s="2"/>
+      <c r="K313" s="4"/>
     </row>
     <row r="314" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K314" s="2"/>
+      <c r="K314" s="4"/>
     </row>
     <row r="315" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K315" s="2"/>
+      <c r="K315" s="4"/>
     </row>
     <row r="316" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K316" s="2"/>
+      <c r="K316" s="4"/>
     </row>
     <row r="317" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K317" s="2"/>
+      <c r="K317" s="4"/>
     </row>
     <row r="318" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K318" s="2"/>
+      <c r="K318" s="4"/>
     </row>
     <row r="319" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K319" s="2"/>
+      <c r="K319" s="4"/>
     </row>
     <row r="320" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K320" s="2"/>
+      <c r="K320" s="4"/>
     </row>
     <row r="321" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K321" s="2"/>
+      <c r="K321" s="4"/>
     </row>
     <row r="322" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K322" s="2"/>
+      <c r="K322" s="4"/>
     </row>
     <row r="323" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K323" s="2"/>
+      <c r="K323" s="4"/>
     </row>
     <row r="324" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K324" s="2"/>
+      <c r="K324" s="4"/>
     </row>
     <row r="325" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K325" s="2"/>
+      <c r="K325" s="4"/>
     </row>
     <row r="326" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K326" s="2"/>
+      <c r="K326" s="4"/>
     </row>
     <row r="327" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K327" s="2"/>
+      <c r="K327" s="4"/>
     </row>
     <row r="328" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K328" s="2"/>
+      <c r="K328" s="4"/>
     </row>
     <row r="329" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K329" s="2"/>
+      <c r="K329" s="4"/>
     </row>
     <row r="330" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K330" s="2"/>
+      <c r="K330" s="4"/>
     </row>
     <row r="331" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K331" s="2"/>
+      <c r="K331" s="4"/>
     </row>
     <row r="332" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K332" s="2"/>
+      <c r="K332" s="4"/>
     </row>
     <row r="333" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K333" s="2"/>
+      <c r="K333" s="4"/>
     </row>
     <row r="334" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K334" s="2"/>
+      <c r="K334" s="4"/>
     </row>
     <row r="335" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K335" s="2"/>
+      <c r="K335" s="4"/>
     </row>
     <row r="336" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K336" s="2"/>
+      <c r="K336" s="4"/>
     </row>
     <row r="337" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K337" s="2"/>
+      <c r="K337" s="4"/>
     </row>
     <row r="338" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K338" s="2"/>
+      <c r="K338" s="4"/>
     </row>
     <row r="339" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K339" s="2"/>
+      <c r="K339" s="4"/>
     </row>
     <row r="340" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K340" s="2"/>
+      <c r="K340" s="4"/>
     </row>
     <row r="341" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K341" s="2"/>
+      <c r="K341" s="4"/>
     </row>
     <row r="342" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K342" s="2"/>
+      <c r="K342" s="4"/>
     </row>
     <row r="343" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K343" s="2"/>
+      <c r="K343" s="4"/>
     </row>
     <row r="344" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K344" s="2"/>
+      <c r="K344" s="4"/>
     </row>
     <row r="345" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K345" s="2"/>
+      <c r="K345" s="4"/>
     </row>
     <row r="346" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K346" s="2"/>
+      <c r="K346" s="4"/>
     </row>
     <row r="347" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K347" s="2"/>
+      <c r="K347" s="4"/>
     </row>
     <row r="348" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K348" s="2"/>
+      <c r="K348" s="4"/>
     </row>
     <row r="349" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K349" s="2"/>
+      <c r="K349" s="4"/>
     </row>
     <row r="350" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K350" s="2"/>
+      <c r="K350" s="4"/>
     </row>
     <row r="351" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K351" s="2"/>
+      <c r="K351" s="4"/>
     </row>
     <row r="352" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K352" s="2"/>
+      <c r="K352" s="4"/>
     </row>
     <row r="353" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K353" s="2"/>
+      <c r="K353" s="4"/>
     </row>
     <row r="354" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K354" s="2"/>
+      <c r="K354" s="4"/>
     </row>
     <row r="355" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K355" s="2"/>
+      <c r="K355" s="4"/>
     </row>
     <row r="356" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K356" s="2"/>
-    </row>
-    <row r="357" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K357" s="2"/>
+      <c r="K356" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/du lieu sach.xlsx
+++ b/du lieu sach.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hk6\DATN\DATN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HK6\DATN\DATN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE60D419-C441-4FA4-AECA-1CD08CFADF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6C3155-5247-477F-9840-5A8C2C31AB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="8145" windowWidth="14340" windowHeight="8055" tabRatio="611" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="268">
   <si>
     <t>MaSach</t>
   </si>
@@ -1200,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,7 +1215,7 @@
     <col min="9" max="9" width="8.42578125" style="2" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="2" customWidth="1"/>
     <col min="13" max="13" width="168.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1286,8 +1286,8 @@
       <c r="I2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>192</v>
+      <c r="J2" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K2" s="3">
         <v>44993.412780362698</v>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="M2" t="str">
         <f>"INSERT INTO Sach VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"',"&amp;D2&amp;",N'"&amp;E2&amp;"',"&amp;F2&amp;",'"&amp;G2&amp;"',"&amp;H2&amp;",1,"&amp;J2&amp;",'',"&amp;L2&amp;")"</f>
-        <v>INSERT INTO Sach VALUES('nv61','GD','GK',NULL,N'Ngữ văn lớp 6 tập 1',NULL,'nv61.jpg',6000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('nv61','GD','GK',NULL,N'Ngữ văn lớp 6 tập 1',NULL,'nv61.jpg',6000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1329,8 +1329,8 @@
       <c r="I3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>192</v>
+      <c r="J3" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K3" s="3">
         <v>44993.412780362698</v>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M66" si="1">"INSERT INTO Sach VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;",N'"&amp;E3&amp;"',"&amp;F3&amp;",'"&amp;G3&amp;"',"&amp;H3&amp;",1,"&amp;J3&amp;",'',"&amp;L3&amp;")"</f>
-        <v>INSERT INTO Sach VALUES('nv62','GD','GK',NULL,N'Ngữ văn 6 lớp tập 2',NULL,'nv62.jpg',6000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('nv62','GD','GK',NULL,N'Ngữ văn 6 lớp tập 2',NULL,'nv62.jpg',6000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1372,8 +1372,8 @@
       <c r="I4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>192</v>
+      <c r="J4" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K4" s="3">
         <v>44993.412780362698</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('nv71','GD','GK',NULL,N'Ngữ văn lớp 7 tập 1',NULL,'nv71.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('nv71','GD','GK',NULL,N'Ngữ văn lớp 7 tập 1',NULL,'nv71.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1415,8 +1415,8 @@
       <c r="I5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>192</v>
+      <c r="J5" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K5" s="3">
         <v>44993.412780362698</v>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('nv72','GD','GK',NULL,N'Ngữ văn lớp 7 tập 2',NULL,'nv72.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('nv72','GD','GK',NULL,N'Ngữ văn lớp 7 tập 2',NULL,'nv72.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1458,8 +1458,8 @@
       <c r="I6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>192</v>
+      <c r="J6" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K6" s="3">
         <v>44993.412780362698</v>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('nv81','GD','GK',NULL,N'Ngữ văn lớp 8 tập 1',NULL,'nv81.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('nv81','GD','GK',NULL,N'Ngữ văn lớp 8 tập 1',NULL,'nv81.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1501,8 +1501,8 @@
       <c r="I7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>192</v>
+      <c r="J7" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K7" s="3">
         <v>44993.412780362698</v>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('nv82','GD','GK',NULL,N'Ngữ văn lớp 8 tập 2',NULL,'nv82.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('nv82','GD','GK',NULL,N'Ngữ văn lớp 8 tập 2',NULL,'nv82.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1544,8 +1544,8 @@
       <c r="I8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>192</v>
+      <c r="J8" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>44993.412780362698</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('nv91','GD','GK',NULL,N'Ngữ văn lớp 9 tập 1',NULL,'nv91.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('nv91','GD','GK',NULL,N'Ngữ văn lớp 9 tập 1',NULL,'nv91.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1587,8 +1587,8 @@
       <c r="I9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>192</v>
+      <c r="J9" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>44993.412780362698</v>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('nv92','GD','GK',NULL,N'Ngữ văn lớp 9 tập 2',NULL,'nv92.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('nv92','GD','GK',NULL,N'Ngữ văn lớp 9 tập 2',NULL,'nv92.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1630,8 +1630,8 @@
       <c r="I10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>192</v>
+      <c r="J10" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>44993.412780362698</v>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('nv101','GD','GK',NULL,N'Ngữ văn lớp 10 tập 1',NULL,'nv101.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('nv101','GD','GK',NULL,N'Ngữ văn lớp 10 tập 1',NULL,'nv101.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1673,8 +1673,8 @@
       <c r="I11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>192</v>
+      <c r="J11" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K11" s="3">
         <v>44993.412780362698</v>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('nv102','GD','GK',NULL,N'Ngữ văn lớp 10 tập 2',NULL,'nv102.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('nv102','GD','GK',NULL,N'Ngữ văn lớp 10 tập 2',NULL,'nv102.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1716,8 +1716,8 @@
       <c r="I12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>192</v>
+      <c r="J12" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>44993.412780362698</v>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('nv111','GD','GK',NULL,N'Ngữ văn lớp 11 tập 1',NULL,'nv111.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('nv111','GD','GK',NULL,N'Ngữ văn lớp 11 tập 1',NULL,'nv111.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1759,8 +1759,8 @@
       <c r="I13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>192</v>
+      <c r="J13" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K13" s="3">
         <v>44993.412780362698</v>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('nv112','GD','GK',NULL,N'Ngữ văn lớp 11 tập 2',NULL,'nv112.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('nv112','GD','GK',NULL,N'Ngữ văn lớp 11 tập 2',NULL,'nv112.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1802,8 +1802,8 @@
       <c r="I14" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>192</v>
+      <c r="J14" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>44993.412780362698</v>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('nv121','GD','GK',NULL,N'Ngữ văn lớp 12 tập 1',NULL,'nv121.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('nv121','GD','GK',NULL,N'Ngữ văn lớp 12 tập 1',NULL,'nv121.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1845,8 +1845,8 @@
       <c r="I15" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>192</v>
+      <c r="J15" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>44993.412780362698</v>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="M15" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('nv122','GD','GK',NULL,N'Ngữ văn lớp 12 tập 2',NULL,'nv122.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('nv122','GD','GK',NULL,N'Ngữ văn lớp 12 tập 2',NULL,'nv122.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1888,8 +1888,8 @@
       <c r="I16" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>192</v>
+      <c r="J16" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K16" s="3">
         <v>44993.412780362698</v>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="M16" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('t61','GD','GK',NULL,N'Toán lớp 6 tập 1',NULL,'t61.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('t61','GD','GK',NULL,N'Toán lớp 6 tập 1',NULL,'t61.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1931,8 +1931,8 @@
       <c r="I17" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>192</v>
+      <c r="J17" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>44993.412780362698</v>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="M17" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('t62','GD','GK',NULL,N'Toán lớp 6 tập 2',NULL,'t62.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('t62','GD','GK',NULL,N'Toán lớp 6 tập 2',NULL,'t62.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1974,8 +1974,8 @@
       <c r="I18" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>192</v>
+      <c r="J18" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>44993.412780362698</v>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="M18" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('t71','GD','GK',NULL,N'Toán lớp 7 tập 1',NULL,'t71.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('t71','GD','GK',NULL,N'Toán lớp 7 tập 1',NULL,'t71.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2017,8 +2017,8 @@
       <c r="I19" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>192</v>
+      <c r="J19" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K19" s="3">
         <v>44993.412780362698</v>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="M19" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('t72','GD','GK',NULL,N'Toán lớp 7 tập 2',NULL,'t72.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('t72','GD','GK',NULL,N'Toán lớp 7 tập 2',NULL,'t72.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2060,8 +2060,8 @@
       <c r="I20" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>192</v>
+      <c r="J20" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>44993.412780362698</v>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="M20" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('t81','GD','GK',NULL,N'Toán lớp 8 tập 1',NULL,'t81.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('t81','GD','GK',NULL,N'Toán lớp 8 tập 1',NULL,'t81.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2103,8 +2103,8 @@
       <c r="I21" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>192</v>
+      <c r="J21" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>44993.412780362698</v>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="M21" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('t82','GD','GK',NULL,N'Toán lớp 8 tập 2',NULL,'t82.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('t82','GD','GK',NULL,N'Toán lớp 8 tập 2',NULL,'t82.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2146,8 +2146,8 @@
       <c r="I22" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>192</v>
+      <c r="J22" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>44993.412780362698</v>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="M22" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('t91','GD','GK',NULL,N'Toán lớp 9 tập 1',NULL,'t91.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('t91','GD','GK',NULL,N'Toán lớp 9 tập 1',NULL,'t91.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2189,8 +2189,8 @@
       <c r="I23" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>192</v>
+      <c r="J23" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>44993.412780362698</v>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('t92','GD','GK',NULL,N'Toán lớp 9 tập 2',NULL,'t92.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('t92','GD','GK',NULL,N'Toán lớp 9 tập 2',NULL,'t92.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2232,8 +2232,8 @@
       <c r="I24" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>192</v>
+      <c r="J24" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>44993.412780362698</v>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('t-ds10','GD','GK',NULL,N'Toán đại số lớp 10',NULL,'t-ds10.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('t-ds10','GD','GK',NULL,N'Toán đại số lớp 10',NULL,'t-ds10.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2275,8 +2275,8 @@
       <c r="I25" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>192</v>
+      <c r="J25" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K25" s="3">
         <v>44993.412780362698</v>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('t-ds11','GD','GK',NULL,N'Toán đại số lớp 11',NULL,'t-ds11.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('t-ds11','GD','GK',NULL,N'Toán đại số lớp 11',NULL,'t-ds11.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2318,8 +2318,8 @@
       <c r="I26" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>192</v>
+      <c r="J26" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>44993.412780362698</v>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('t-ds12','GD','GK',NULL,N'Toán đại số lớp 12',NULL,'t-ds12.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('t-ds12','GD','GK',NULL,N'Toán đại số lớp 12',NULL,'t-ds12.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2361,8 +2361,8 @@
       <c r="I27" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>192</v>
+      <c r="J27" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>44993.412780362698</v>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="M27" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('t-hh10','GD','GK',NULL,N'Toán hình học lớp 10',NULL,'t-hh10.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('t-hh10','GD','GK',NULL,N'Toán hình học lớp 10',NULL,'t-hh10.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2404,8 +2404,8 @@
       <c r="I28" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>192</v>
+      <c r="J28" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K28" s="3">
         <v>44993.412780362698</v>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('t-hh11','GD','GK',NULL,N'Toán hình học lớp 11',NULL,'t-hh11.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('t-hh11','GD','GK',NULL,N'Toán hình học lớp 11',NULL,'t-hh11.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2447,8 +2447,8 @@
       <c r="I29" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>192</v>
+      <c r="J29" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K29" s="3">
         <v>44993.412780362698</v>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('t-hh12','GD','GK',NULL,N'Toán hình học  lớp 12',NULL,'t-hh12.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('t-hh12','GD','GK',NULL,N'Toán hình học  lớp 12',NULL,'t-hh12.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2490,8 +2490,8 @@
       <c r="I30" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>192</v>
+      <c r="J30" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K30" s="3">
         <v>44993.412780362698</v>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="M30" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('ta6','GD','GK',NULL,N'Tiếng anh lớp 6',NULL,'ta6.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ta6','GD','GK',NULL,N'Tiếng anh lớp 6',NULL,'ta6.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2533,8 +2533,8 @@
       <c r="I31" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>192</v>
+      <c r="J31" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K31" s="3">
         <v>44993.412780362698</v>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('ta7','GD','GK',NULL,N'Tiếng anh lớp 7',NULL,'ta7.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ta7','GD','GK',NULL,N'Tiếng anh lớp 7',NULL,'ta7.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2576,8 +2576,8 @@
       <c r="I32" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>192</v>
+      <c r="J32" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>44993.412780362698</v>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('ta8','GD','GK',NULL,N'Tiếng anh lớp 8',NULL,'ta8.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ta8','GD','GK',NULL,N'Tiếng anh lớp 8',NULL,'ta8.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2619,8 +2619,8 @@
       <c r="I33" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>192</v>
+      <c r="J33" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>44993.412780362698</v>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="M33" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('ta9','GD','GK',NULL,N'Tiếng anh lớp 9',NULL,'ta9.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ta9','GD','GK',NULL,N'Tiếng anh lớp 9',NULL,'ta9.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2662,8 +2662,8 @@
       <c r="I34" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>192</v>
+      <c r="J34" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K34" s="3">
         <v>44993.412780362698</v>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('ta10','GD','GK',NULL,N'Tiếng anh lớp 10',NULL,'ta10.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ta10','GD','GK',NULL,N'Tiếng anh lớp 10',NULL,'ta10.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2705,8 +2705,8 @@
       <c r="I35" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>192</v>
+      <c r="J35" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>44993.412780362698</v>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="M35" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('ta11','GD','GK',NULL,N'Tiếng anh lớp 11',NULL,'ta11.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ta11','GD','GK',NULL,N'Tiếng anh lớp 11',NULL,'ta11.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2748,8 +2748,8 @@
       <c r="I36" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>192</v>
+      <c r="J36" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K36" s="3">
         <v>44993.412780362698</v>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="M36" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('ta12','GD','GK',NULL,N'Tiếng anh lớp 12',NULL,'ta12.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ta12','GD','GK',NULL,N'Tiếng anh lớp 12',NULL,'ta12.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2791,8 +2791,8 @@
       <c r="I37" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>192</v>
+      <c r="J37" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K37" s="3">
         <v>44993.412780362698</v>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="M37" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('h8','GD','GK',NULL,N'Hoá lớp 8',NULL,'h8.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('h8','GD','GK',NULL,N'Hoá lớp 8',NULL,'h8.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2834,8 +2834,8 @@
       <c r="I38" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>192</v>
+      <c r="J38" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K38" s="3">
         <v>44993.412780362698</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="M38" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('h9','GD','GK',NULL,N'Hoá lớp 9',NULL,'h9.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('h9','GD','GK',NULL,N'Hoá lớp 9',NULL,'h9.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2877,8 +2877,8 @@
       <c r="I39" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>192</v>
+      <c r="J39" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K39" s="3">
         <v>44993.412780362698</v>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="M39" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('h10','GD','GK',NULL,N'Hoá lớp 10',NULL,'h10.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('h10','GD','GK',NULL,N'Hoá lớp 10',NULL,'h10.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2920,8 +2920,8 @@
       <c r="I40" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>192</v>
+      <c r="J40" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K40" s="3">
         <v>44993.412780362698</v>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="M40" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('h11','GD','GK',NULL,N'Hoá lớp 11',NULL,'h11.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('h11','GD','GK',NULL,N'Hoá lớp 11',NULL,'h11.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2963,8 +2963,8 @@
       <c r="I41" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>192</v>
+      <c r="J41" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>44993.412780362698</v>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="M41" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('h12','GD','GK',NULL,N'Hoá lớp 12',NULL,'h12.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('h12','GD','GK',NULL,N'Hoá lớp 12',NULL,'h12.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -3006,8 +3006,8 @@
       <c r="I42" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>192</v>
+      <c r="J42" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K42" s="3">
         <v>44993.412780362698</v>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="M42" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('l6','GD','GK',NULL,N'Vật lí lớp 6',NULL,'l6.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('l6','GD','GK',NULL,N'Vật lí lớp 6',NULL,'l6.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -3049,8 +3049,8 @@
       <c r="I43" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>192</v>
+      <c r="J43" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>44993.412780362698</v>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="M43" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('l7','GD','GK',NULL,N'Vật lí lớp 7',NULL,'l7.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('l7','GD','GK',NULL,N'Vật lí lớp 7',NULL,'l7.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -3092,8 +3092,8 @@
       <c r="I44" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>192</v>
+      <c r="J44" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>44993.412780362698</v>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="M44" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('l8','GD','GK',NULL,N'Vật lí lớp 8',NULL,'l8.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('l8','GD','GK',NULL,N'Vật lí lớp 8',NULL,'l8.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -3135,8 +3135,8 @@
       <c r="I45" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>192</v>
+      <c r="J45" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>44993.412780362698</v>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="M45" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('l9','GD','GK',NULL,N'Vật lí lớp 9',NULL,'l9.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('l9','GD','GK',NULL,N'Vật lí lớp 9',NULL,'l9.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -3178,8 +3178,8 @@
       <c r="I46" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>192</v>
+      <c r="J46" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>44993.412780362698</v>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="M46" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('l10','GD','GK',NULL,N'Vật lí lớp 10',NULL,'l10.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('l10','GD','GK',NULL,N'Vật lí lớp 10',NULL,'l10.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -3221,8 +3221,8 @@
       <c r="I47" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>192</v>
+      <c r="J47" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>44993.412780362698</v>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="M47" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('l11','GD','GK',NULL,N'Vật lí lớp 11',NULL,'l11.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('l11','GD','GK',NULL,N'Vật lí lớp 11',NULL,'l11.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -3264,8 +3264,8 @@
       <c r="I48" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>192</v>
+      <c r="J48" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>44993.412780362698</v>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="M48" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('l12','GD','GK',NULL,N'Vật lí lớp 12',NULL,'l12.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('l12','GD','GK',NULL,N'Vật lí lớp 12',NULL,'l12.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -3307,8 +3307,8 @@
       <c r="I49" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>192</v>
+      <c r="J49" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>44993.412780362698</v>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="M49" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('cn6','GD','GK',NULL,N'Công nghệ lớp 6',NULL,'cn6.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('cn6','GD','GK',NULL,N'Công nghệ lớp 6',NULL,'cn6.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -3350,8 +3350,8 @@
       <c r="I50" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>192</v>
+      <c r="J50" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K50" s="3">
         <v>44993.412780362698</v>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="M50" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('cn7','GD','GK',NULL,N'Công nghệ lớp 7',NULL,'cn7.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('cn7','GD','GK',NULL,N'Công nghệ lớp 7',NULL,'cn7.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -3393,8 +3393,8 @@
       <c r="I51" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>192</v>
+      <c r="J51" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K51" s="3">
         <v>44993.412780362698</v>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="M51" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('cn8','GD','GK',NULL,N'Công nghệ lớp 8',NULL,'cn8.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('cn8','GD','GK',NULL,N'Công nghệ lớp 8',NULL,'cn8.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3436,8 +3436,8 @@
       <c r="I52" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>192</v>
+      <c r="J52" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>44993.412780362698</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="M52" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('cn9','GD','GK',NULL,N'Công nghệ lớp 9',NULL,'cn9.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('cn9','GD','GK',NULL,N'Công nghệ lớp 9',NULL,'cn9.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3479,8 +3479,8 @@
       <c r="I53" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>192</v>
+      <c r="J53" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K53" s="3">
         <v>44993.412780362698</v>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="M53" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('cn10','GD','GK',NULL,N'Công nghệ lớp 10',NULL,'cn10.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('cn10','GD','GK',NULL,N'Công nghệ lớp 10',NULL,'cn10.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3522,8 +3522,8 @@
       <c r="I54" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>192</v>
+      <c r="J54" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>44993.412780362698</v>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="M54" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('cn11','GD','GK',NULL,N'Công nghệ lớp 11',NULL,'cn11.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('cn11','GD','GK',NULL,N'Công nghệ lớp 11',NULL,'cn11.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3565,8 +3565,8 @@
       <c r="I55" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J55" s="1" t="s">
-        <v>192</v>
+      <c r="J55" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K55" s="3">
         <v>44993.412780362698</v>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="M55" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('cn12','GD','GK',NULL,N'Công nghệ lớp 12',NULL,'cn12.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('cn12','GD','GK',NULL,N'Công nghệ lớp 12',NULL,'cn12.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3608,8 +3608,8 @@
       <c r="I56" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J56" s="1" t="s">
-        <v>192</v>
+      <c r="J56" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K56" s="3">
         <v>44993.412780362698</v>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="M56" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('dl6','GD','GK',NULL,N'Địa lí lớp 6',NULL,'dl6.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('dl6','GD','GK',NULL,N'Địa lí lớp 6',NULL,'dl6.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3651,8 +3651,8 @@
       <c r="I57" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>192</v>
+      <c r="J57" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>44993.412780362698</v>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="M57" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('dl7','GD','GK',NULL,N'Địa lí lớp 7',NULL,'dl7.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('dl7','GD','GK',NULL,N'Địa lí lớp 7',NULL,'dl7.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3694,8 +3694,8 @@
       <c r="I58" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J58" s="1" t="s">
-        <v>192</v>
+      <c r="J58" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>44993.412780362698</v>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="M58" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('dl8','GD','GK',NULL,N'Địa lí lớp 8',NULL,'dl8.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('dl8','GD','GK',NULL,N'Địa lí lớp 8',NULL,'dl8.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3737,8 +3737,8 @@
       <c r="I59" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>192</v>
+      <c r="J59" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>44993.412780362698</v>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="M59" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('dl9','GD','GK',NULL,N'Địa lí lớp 9',NULL,'dl9.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('dl9','GD','GK',NULL,N'Địa lí lớp 9',NULL,'dl9.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3780,8 +3780,8 @@
       <c r="I60" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>192</v>
+      <c r="J60" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>44993.412780362698</v>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="M60" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('dl10','GD','GK',NULL,N'Địa lí lớp 10',NULL,'dl10.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('dl10','GD','GK',NULL,N'Địa lí lớp 10',NULL,'dl10.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3823,8 +3823,8 @@
       <c r="I61" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>192</v>
+      <c r="J61" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>44993.412780362698</v>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="M61" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('dl11','GD','GK',NULL,N'Địa lí lớp 11',NULL,'dl11.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('dl11','GD','GK',NULL,N'Địa lí lớp 11',NULL,'dl11.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3866,8 +3866,8 @@
       <c r="I62" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>192</v>
+      <c r="J62" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>44993.412780362698</v>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="M62" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('dl12','GD','GK',NULL,N'Địa lí lớp 12',NULL,'dl12.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('dl12','GD','GK',NULL,N'Địa lí lớp 12',NULL,'dl12.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3909,8 +3909,8 @@
       <c r="I63" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J63" s="1" t="s">
-        <v>192</v>
+      <c r="J63" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K63" s="3">
         <v>44993.412780362698</v>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="M63" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('ls6','GD','GK',NULL,N'Lịch sử lớp 6',NULL,'ls6.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ls6','GD','GK',NULL,N'Lịch sử lớp 6',NULL,'ls6.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3952,8 +3952,8 @@
       <c r="I64" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J64" s="1" t="s">
-        <v>192</v>
+      <c r="J64" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K64" s="3">
         <v>44993.412780362698</v>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="M64" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('ls7','GD','GK',NULL,N'Lịch sử lớp 7',NULL,'ls7.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ls7','GD','GK',NULL,N'Lịch sử lớp 7',NULL,'ls7.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3995,8 +3995,8 @@
       <c r="I65" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>192</v>
+      <c r="J65" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K65" s="3">
         <v>44993.412780362698</v>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="M65" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('ls8','GD','GK',NULL,N'Lịch sử lớp 8',NULL,'ls8.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ls8','GD','GK',NULL,N'Lịch sử lớp 8',NULL,'ls8.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -4038,8 +4038,8 @@
       <c r="I66" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J66" s="1" t="s">
-        <v>192</v>
+      <c r="J66" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>44993.412780362698</v>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="M66" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO Sach VALUES('ls9','GD','GK',NULL,N'Lịch sử lớp 9',NULL,'ls9.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ls9','GD','GK',NULL,N'Lịch sử lớp 9',NULL,'ls9.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -4081,8 +4081,8 @@
       <c r="I67" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J67" s="1" t="s">
-        <v>192</v>
+      <c r="J67" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K67" s="3">
         <v>44993.412780362698</v>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="M67" t="str">
         <f t="shared" ref="M67:M126" si="3">"INSERT INTO Sach VALUES('"&amp;A67&amp;"','"&amp;B67&amp;"','"&amp;C67&amp;"',"&amp;D67&amp;",N'"&amp;E67&amp;"',"&amp;F67&amp;",'"&amp;G67&amp;"',"&amp;H67&amp;",1,"&amp;J67&amp;",'',"&amp;L67&amp;")"</f>
-        <v>INSERT INTO Sach VALUES('ls10','GD','GK',NULL,N'Lịch sử lớp 10',NULL,'ls10.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ls10','GD','GK',NULL,N'Lịch sử lớp 10',NULL,'ls10.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -4124,8 +4124,8 @@
       <c r="I68" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J68" s="1" t="s">
-        <v>192</v>
+      <c r="J68" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K68" s="3">
         <v>44993.412780362698</v>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="M68" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('ls11','GD','GK',NULL,N'Lịch sử lớp 11',NULL,'ls11.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ls11','GD','GK',NULL,N'Lịch sử lớp 11',NULL,'ls11.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -4167,8 +4167,8 @@
       <c r="I69" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J69" s="1" t="s">
-        <v>192</v>
+      <c r="J69" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K69" s="3">
         <v>44993.412780362698</v>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="M69" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('ls12','GD','GK',NULL,N'Lịch sử lớp 12',NULL,'ls12.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ls12','GD','GK',NULL,N'Lịch sử lớp 12',NULL,'ls12.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -4210,8 +4210,8 @@
       <c r="I70" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J70" s="1" t="s">
-        <v>192</v>
+      <c r="J70" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>44993.412780362698</v>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="M70" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('s6','GD','GK',NULL,N'Sinh học lớp 6',NULL,'s6.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('s6','GD','GK',NULL,N'Sinh học lớp 6',NULL,'s6.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -4253,8 +4253,8 @@
       <c r="I71" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J71" s="1" t="s">
-        <v>192</v>
+      <c r="J71" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K71" s="3">
         <v>44993.412780362698</v>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="M71" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('s7','GD','GK',NULL,N'Sinh học lớp 7',NULL,'s7.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('s7','GD','GK',NULL,N'Sinh học lớp 7',NULL,'s7.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -4296,8 +4296,8 @@
       <c r="I72" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J72" s="1" t="s">
-        <v>192</v>
+      <c r="J72" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K72" s="3">
         <v>44993.412780362698</v>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="M72" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('s8','GD','GK',NULL,N'Sinh học lớp 8',NULL,'s8.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('s8','GD','GK',NULL,N'Sinh học lớp 8',NULL,'s8.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -4339,8 +4339,8 @@
       <c r="I73" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>192</v>
+      <c r="J73" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K73" s="3">
         <v>44993.412780362698</v>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="M73" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('s9','GD','GK',NULL,N'Sinh học lớp 9',NULL,'s9.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('s9','GD','GK',NULL,N'Sinh học lớp 9',NULL,'s9.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -4382,8 +4382,8 @@
       <c r="I74" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>192</v>
+      <c r="J74" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K74" s="3">
         <v>44993.412780362698</v>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="M74" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('s10','GD','GK',NULL,N'Sinh học lớp 10',NULL,'s10.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('s10','GD','GK',NULL,N'Sinh học lớp 10',NULL,'s10.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -4425,8 +4425,8 @@
       <c r="I75" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>192</v>
+      <c r="J75" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K75" s="3">
         <v>44993.412780362698</v>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="M75" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('s11','GD','GK',NULL,N'Sinh học lớp 11',NULL,'s11.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('s11','GD','GK',NULL,N'Sinh học lớp 11',NULL,'s11.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -4468,8 +4468,8 @@
       <c r="I76" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J76" s="1" t="s">
-        <v>192</v>
+      <c r="J76" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>44993.412780362698</v>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="M76" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('s12','GD','GK',NULL,N'Sinh học lớp 12',NULL,'s12.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('s12','GD','GK',NULL,N'Sinh học lớp 12',NULL,'s12.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -4511,8 +4511,8 @@
       <c r="I77" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>192</v>
+      <c r="J77" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K77" s="3">
         <v>44993.412780362698</v>
@@ -4522,7 +4522,7 @@
       </c>
       <c r="M77" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('gdcd6','GD','GK',NULL,N'Giáo dục công dân lớp 6',NULL,'gdcd6.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('gdcd6','GD','GK',NULL,N'Giáo dục công dân lớp 6',NULL,'gdcd6.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4554,8 +4554,8 @@
       <c r="I78" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J78" s="1" t="s">
-        <v>192</v>
+      <c r="J78" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K78" s="3">
         <v>44993.412780362698</v>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="M78" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('gdcd7','GD','GK',NULL,N'Giáo dục công dân lớp 7',NULL,'gdcd7.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('gdcd7','GD','GK',NULL,N'Giáo dục công dân lớp 7',NULL,'gdcd7.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4597,8 +4597,8 @@
       <c r="I79" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J79" s="1" t="s">
-        <v>192</v>
+      <c r="J79" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K79" s="3">
         <v>44993.412780362698</v>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="M79" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('gdcd8','GD','GK',NULL,N'Giáo dục công dân lớp 8',NULL,'gdcd8.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('gdcd8','GD','GK',NULL,N'Giáo dục công dân lớp 8',NULL,'gdcd8.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4640,8 +4640,8 @@
       <c r="I80" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J80" s="1" t="s">
-        <v>192</v>
+      <c r="J80" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K80" s="3">
         <v>44993.412780362698</v>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="M80" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('gdcd9','GD','GK',NULL,N'Giáo dục công dân lớp 9',NULL,'gdcd9.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('gdcd9','GD','GK',NULL,N'Giáo dục công dân lớp 9',NULL,'gdcd9.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4683,8 +4683,8 @@
       <c r="I81" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J81" s="1" t="s">
-        <v>192</v>
+      <c r="J81" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>44993.412780362698</v>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="M81" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('gdcd10','GD','GK',NULL,N'Giáo dục công dân lớp 10',NULL,'gdcd10.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('gdcd10','GD','GK',NULL,N'Giáo dục công dân lớp 10',NULL,'gdcd10.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4726,8 +4726,8 @@
       <c r="I82" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J82" s="1" t="s">
-        <v>192</v>
+      <c r="J82" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K82" s="3">
         <v>44993.412780362698</v>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="M82" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('gdcd11','GD','GK',NULL,N'Giáo dục công dân lớp 11',NULL,'gdcd11.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('gdcd11','GD','GK',NULL,N'Giáo dục công dân lớp 11',NULL,'gdcd11.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -4769,8 +4769,8 @@
       <c r="I83" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>192</v>
+      <c r="J83" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>44993.412780362698</v>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="M83" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('gdcd12','GD','GK',NULL,N'Giáo dục công dân lớp 12',NULL,'gdcd12.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('gdcd12','GD','GK',NULL,N'Giáo dục công dân lớp 12',NULL,'gdcd12.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4812,8 +4812,8 @@
       <c r="I84" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J84" s="1" t="s">
-        <v>192</v>
+      <c r="J84" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K84" s="3">
         <v>44993.412780362698</v>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="M84" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('gdqp10','GD','GK',NULL,N'Giáo dục quốc phòng lớp 10',NULL,'gdqp10.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('gdqp10','GD','GK',NULL,N'Giáo dục quốc phòng lớp 10',NULL,'gdqp10.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4855,8 +4855,8 @@
       <c r="I85" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J85" s="1" t="s">
-        <v>192</v>
+      <c r="J85" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K85" s="3">
         <v>44993.412780362698</v>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="M85" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('gdqp11','GD','GK',NULL,N'Giáo dục quốc phòng lớp 11',NULL,'gdqp11.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('gdqp11','GD','GK',NULL,N'Giáo dục quốc phòng lớp 11',NULL,'gdqp11.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4898,8 +4898,8 @@
       <c r="I86" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J86" s="1" t="s">
-        <v>192</v>
+      <c r="J86" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K86" s="3">
         <v>44993.412780362698</v>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="M86" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('gdqp12','GD','GK',NULL,N'Giáo dục quốc phòng lớp 12',NULL,'gdqp12.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('gdqp12','GD','GK',NULL,N'Giáo dục quốc phòng lớp 12',NULL,'gdqp12.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4941,8 +4941,8 @@
       <c r="I87" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J87" s="1" t="s">
-        <v>192</v>
+      <c r="J87" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K87" s="3">
         <v>44993.412780362698</v>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="M87" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('an-v6','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 6',NULL,'an-v6.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('an-v6','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 6',NULL,'an-v6.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4984,8 +4984,8 @@
       <c r="I88" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J88" s="1" t="s">
-        <v>192</v>
+      <c r="J88" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K88" s="3">
         <v>44993.412780362698</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="M88" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('an-v7','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 7',NULL,'an-v7.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('an-v7','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 7',NULL,'an-v7.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -5027,8 +5027,8 @@
       <c r="I89" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J89" s="1" t="s">
-        <v>192</v>
+      <c r="J89" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>44993.412780362698</v>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="M89" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('an-v8','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 8',NULL,'an-v8.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('an-v8','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 8',NULL,'an-v8.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -5070,8 +5070,8 @@
       <c r="I90" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J90" s="1" t="s">
-        <v>192</v>
+      <c r="J90" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K90" s="3">
         <v>44993.412780362698</v>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="M90" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('an-v9','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 9',NULL,'an-v9.jpg',5000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('an-v9','GD','GK',NULL,N'Âm nhạc và Mĩ thuật lớp 9',NULL,'an-v9.jpg',5000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -5116,8 +5116,8 @@
       <c r="I92" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J92" s="1" t="s">
-        <v>192</v>
+      <c r="J92" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K92" s="3">
         <v>44993.412780362698</v>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="M92" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('kt-ta61','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 6 Tập 1',NULL,'kt-ta61.jpg',69000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('kt-ta61','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 6 Tập 1',NULL,'kt-ta61.jpg',69000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -5159,8 +5159,8 @@
       <c r="I93" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J93" s="1" t="s">
-        <v>192</v>
+      <c r="J93" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K93" s="3">
         <v>44993.412780362698</v>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="M93" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('kt-ta62','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 6 Tập 2',NULL,'kt-ta62.jpg',69000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('kt-ta62','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 6 Tập 2',NULL,'kt-ta62.jpg',69000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -5202,8 +5202,8 @@
       <c r="I94" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J94" s="1" t="s">
-        <v>192</v>
+      <c r="J94" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>44993.412780362698</v>
@@ -5213,7 +5213,7 @@
       </c>
       <c r="M94" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('kt-ta71','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 7 Tập 1',NULL,'kt-ta71.jpg',75000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('kt-ta71','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 7 Tập 1',NULL,'kt-ta71.jpg',75000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -5245,8 +5245,8 @@
       <c r="I95" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J95" s="1" t="s">
-        <v>192</v>
+      <c r="J95" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K95" s="3">
         <v>44993.412780362698</v>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="M95" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('kt-ta72','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 7 Tập 2',NULL,'kt-ta72.jpg',75000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('kt-ta72','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 7 Tập 2',NULL,'kt-ta72.jpg',75000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -5288,8 +5288,8 @@
       <c r="I96" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J96" s="1" t="s">
-        <v>192</v>
+      <c r="J96" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>44993.412780362698</v>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="M96" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('kt-ta81','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 8 Tập 1',NULL,'kt-ta81.jpg',75000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('kt-ta81','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 8 Tập 1',NULL,'kt-ta81.jpg',75000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -5331,8 +5331,8 @@
       <c r="I97" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J97" s="1" t="s">
-        <v>192</v>
+      <c r="J97" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K97" s="3">
         <v>44993.412780362698</v>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="M97" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('kt-ta82','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 8 Tập 2',NULL,'kt-ta82.jpg',75000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('kt-ta82','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 8 Tập 2',NULL,'kt-ta82.jpg',75000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -5374,8 +5374,8 @@
       <c r="I98" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J98" s="1" t="s">
-        <v>192</v>
+      <c r="J98" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K98" s="3">
         <v>44993.412780362698</v>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="M98" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('kt-ta91','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 9 Tập 1',NULL,'kt-ta91.jpg',85000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('kt-ta91','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 9 Tập 1',NULL,'kt-ta91.jpg',85000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -5417,8 +5417,8 @@
       <c r="I99" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J99" s="1" t="s">
-        <v>192</v>
+      <c r="J99" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K99" s="3">
         <v>44993.412780362698</v>
@@ -5428,7 +5428,7 @@
       </c>
       <c r="M99" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('kt-ta92','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 9 Tập 2',NULL,'kt-ta92.jpg',85000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('kt-ta92','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Tiếng Anh Lớp 9 Tập 2',NULL,'kt-ta92.jpg',85000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -5460,8 +5460,8 @@
       <c r="I100" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J100" s="1" t="s">
-        <v>192</v>
+      <c r="J100" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>44993.412780362698</v>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="M100" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('gd-ta10','DHQGHN','TK',NULL,N'Luyện Giải Bộ Đề Bồi Dưỡng Học Sinh Giỏi Tiếng Anh Lớp 10',NULL,'gd-ta10.jpg',90000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('gd-ta10','DHQGHN','TK',NULL,N'Luyện Giải Bộ Đề Bồi Dưỡng Học Sinh Giỏi Tiếng Anh Lớp 10',NULL,'gd-ta10.jpg',90000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -5503,8 +5503,8 @@
       <c r="I101" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J101" s="1" t="s">
-        <v>192</v>
+      <c r="J101" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>44993.412780362698</v>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="M101" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('gd-ta11','DHQGHN','TK',NULL,N'Luyện Giải Bộ Đề Bồi Dưỡng Học Sinh Giỏi Tiếng Anh Lớp 11',NULL,'gd-ta11.jpg',90000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('gd-ta11','DHQGHN','TK',NULL,N'Luyện Giải Bộ Đề Bồi Dưỡng Học Sinh Giỏi Tiếng Anh Lớp 11',NULL,'gd-ta11.jpg',90000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -5546,8 +5546,8 @@
       <c r="I102" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J102" s="1" t="s">
-        <v>192</v>
+      <c r="J102" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>44993.412780362698</v>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="M102" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('gd-ta12','DHQGHN','TK',NULL,N'Luyện Giải Bộ Đề Bồi Dưỡng Học Sinh Giỏi Tiếng Anh Lớp 12',NULL,'gd-ta12.jpg',90000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('gd-ta12','DHQGHN','TK',NULL,N'Luyện Giải Bộ Đề Bồi Dưỡng Học Sinh Giỏi Tiếng Anh Lớp 12',NULL,'gd-ta12.jpg',90000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -5589,8 +5589,8 @@
       <c r="I103" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J103" s="1" t="s">
-        <v>192</v>
+      <c r="J103" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K103" s="3">
         <v>44993.412780362698</v>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="M103" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('ktdgnl-t6','DHQGHN','TK',NULL,N'Ôn Tập Kiểm Tra Đánh Giá Năng Lực Môn Toán Lớp 6',NULL,'ktdgnl-t6.jpg',63000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ktdgnl-t6','DHQGHN','TK',NULL,N'Ôn Tập Kiểm Tra Đánh Giá Năng Lực Môn Toán Lớp 6',NULL,'ktdgnl-t6.jpg',63000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5632,8 +5632,8 @@
       <c r="I104" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J104" s="1" t="s">
-        <v>192</v>
+      <c r="J104" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K104" s="3">
         <v>44993.412780362698</v>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="M104" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('kt-t6','DN','TK',NULL,N'60 Đề Kiểm Tra Toán 6 (Theo Chương Trình Giáo Dục Phổ Thông Mới)',NULL,'kt-t6.jpg',65000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('kt-t6','DN','TK',NULL,N'60 Đề Kiểm Tra Toán 6 (Theo Chương Trình Giáo Dục Phổ Thông Mới)',NULL,'kt-t6.jpg',65000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -5675,8 +5675,8 @@
       <c r="I105" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J105" s="1" t="s">
-        <v>192</v>
+      <c r="J105" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K105" s="3">
         <v>44993.412780362698</v>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="M105" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('ppg-t71','DHQGHN','TK',NULL,N'Hướng Dẫn Học &amp; Phương Pháp Giải Toán Lớp 7 - Tập 1 (Bám Sát SGK Chân Trời Sáng Tạo)',NULL,'ppg-t71.jpg',65000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ppg-t71','DHQGHN','TK',NULL,N'Hướng Dẫn Học &amp; Phương Pháp Giải Toán Lớp 7 - Tập 1 (Bám Sát SGK Chân Trời Sáng Tạo)',NULL,'ppg-t71.jpg',65000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5718,8 +5718,8 @@
       <c r="I106" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J106" s="1" t="s">
-        <v>192</v>
+      <c r="J106" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K106" s="3">
         <v>44993.412780362698</v>
@@ -5729,7 +5729,7 @@
       </c>
       <c r="M106" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('ppg-t72','DHQGHN','TK',NULL,N'Hướng Dẫn Học &amp; Phương Pháp Giải Toán Lớp 7 - Tập 2 (Bám Sát SGK Chân Trời Sáng Tạo)',NULL,'ppg-t72.jpg',65000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ppg-t72','DHQGHN','TK',NULL,N'Hướng Dẫn Học &amp; Phương Pháp Giải Toán Lớp 7 - Tập 2 (Bám Sát SGK Chân Trời Sáng Tạo)',NULL,'ppg-t72.jpg',65000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5761,8 +5761,8 @@
       <c r="I107" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J107" s="1" t="s">
-        <v>192</v>
+      <c r="J107" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K107" s="3">
         <v>44993.412780362698</v>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="M107" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('kt-t7','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Toán 7 (Bám Sát SGK Chân Trời Sáng Tạo)',NULL,'kt-t7.jpg',55000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('kt-t7','DHQGHN','TK',NULL,N'Bộ Đề Kiểm Tra Toán 7 (Bám Sát SGK Chân Trời Sáng Tạo)',NULL,'kt-t7.jpg',55000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -5804,8 +5804,8 @@
       <c r="I108" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J108" s="1" t="s">
-        <v>192</v>
+      <c r="J108" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K108" s="3">
         <v>44993.412780362698</v>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="M108" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('100kt-t8','THTPHCM','TK',NULL,N'100 Đề Kiểm Tra Toán 8',NULL,'100kt-t8.jpg',80000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('100kt-t8','THTPHCM','TK',NULL,N'100 Đề Kiểm Tra Toán 8',NULL,'100kt-t8.jpg',80000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -5847,8 +5847,8 @@
       <c r="I109" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J109" s="1" t="s">
-        <v>192</v>
+      <c r="J109" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K109" s="3">
         <v>44993.412780362698</v>
@@ -5858,7 +5858,7 @@
       </c>
       <c r="M109" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('kt-t8','DN','TK',NULL,N'Đề Kiểm Tra Định Kì Toán 8',NULL,'kt-t8.jpg',43000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('kt-t8','DN','TK',NULL,N'Đề Kiểm Tra Định Kì Toán 8',NULL,'kt-t8.jpg',43000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5890,8 +5890,8 @@
       <c r="I110" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J110" s="1" t="s">
-        <v>192</v>
+      <c r="J110" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K110" s="3">
         <v>44993.412780362698</v>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="M110" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('kt-t8-1','DHQGHN','TK',NULL,N'Bộ Đề Kiểm tra Toán 8',NULL,'kt-t8-1.jpg',90000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('kt-t8-1','DHQGHN','TK',NULL,N'Bộ Đề Kiểm tra Toán 8',NULL,'kt-t8-1.jpg',90000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5933,8 +5933,8 @@
       <c r="I111" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J111" s="1" t="s">
-        <v>192</v>
+      <c r="J111" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K111" s="3">
         <v>44993.412780362698</v>
@@ -5944,7 +5944,7 @@
       </c>
       <c r="M111" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('kttt-t9','TN','TK',NULL,N'Bộ Đề Kiểm Tra Môn Toán 9 Theo Hướng Thực Tế, Tích Hợp',NULL,'kttt-t9.jpg',100000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('kttt-t9','TN','TK',NULL,N'Bộ Đề Kiểm Tra Môn Toán 9 Theo Hướng Thực Tế, Tích Hợp',NULL,'kttt-t9.jpg',100000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5976,8 +5976,8 @@
       <c r="I112" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J112" s="1" t="s">
-        <v>192</v>
+      <c r="J112" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K112" s="3">
         <v>44993.412780362698</v>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="M112" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('dotcc-t9','DN','TK',NULL,N'Bộ Đề Ôn Thi Môn Toán 9 Vào Lớp 10',NULL,'dotcc-t9.jpg',51000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('dotcc-t9','DN','TK',NULL,N'Bộ Đề Ôn Thi Môn Toán 9 Vào Lớp 10',NULL,'dotcc-t9.jpg',51000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -6019,8 +6019,8 @@
       <c r="I113" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J113" s="1" t="s">
-        <v>192</v>
+      <c r="J113" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K113" s="3">
         <v>44993.412780362698</v>
@@ -6030,7 +6030,7 @@
       </c>
       <c r="M113" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('cp-ltl10-t9','DHQGHN','TK',NULL,N'Chinh Phục Luyện Thi Vào Lớp 10 Môn Toán Theo Chủ Đề',NULL,'cp-ltl10-t9.jpg',135000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('cp-ltl10-t9','DHQGHN','TK',NULL,N'Chinh Phục Luyện Thi Vào Lớp 10 Môn Toán Theo Chủ Đề',NULL,'cp-ltl10-t9.jpg',135000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -6062,8 +6062,8 @@
       <c r="I114" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J114" s="1" t="s">
-        <v>192</v>
+      <c r="J114" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K114" s="3">
         <v>44993.412780362698</v>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="M114" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('std-lthsg-t9','THTPHCM','TK',NULL,N'Siêu Tư Duy Luyện Đề Chuẩn Bị Kỳ Thi HSG Toán Lớp 9',NULL,'std-lthsg-t9.jpg',126000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('std-lthsg-t9','THTPHCM','TK',NULL,N'Siêu Tư Duy Luyện Đề Chuẩn Bị Kỳ Thi HSG Toán Lớp 9',NULL,'std-lthsg-t9.jpg',126000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -6105,8 +6105,8 @@
       <c r="I115" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J115" s="1" t="s">
-        <v>192</v>
+      <c r="J115" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K115" s="3">
         <v>44993.412780362698</v>
@@ -6116,7 +6116,7 @@
       </c>
       <c r="M115" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('tk-t101','DHQGHN','TK',NULL,N'Sách Tham Khảo Toán 10 - Quyển 1 (Biên Soạn Theo Chương Trình GDPT Mới)',NULL,'tk-t101.jpg',90000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('tk-t101','DHQGHN','TK',NULL,N'Sách Tham Khảo Toán 10 - Quyển 1 (Biên Soạn Theo Chương Trình GDPT Mới)',NULL,'tk-t101.jpg',90000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -6148,8 +6148,8 @@
       <c r="I116" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J116" s="1" t="s">
-        <v>192</v>
+      <c r="J116" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K116" s="3">
         <v>44993.412780362698</v>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="M116" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('tk-t102','DHQGHN','TK',NULL,N'Sách Tham Khảo Toán 10 - Quyển 2 (Biên Soạn Theo Chương Trình GDPT Mới)',NULL,'tk-t102.jpg',100000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('tk-t102','DHQGHN','TK',NULL,N'Sách Tham Khảo Toán 10 - Quyển 2 (Biên Soạn Theo Chương Trình GDPT Mới)',NULL,'tk-t102.jpg',100000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -6191,8 +6191,8 @@
       <c r="I117" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J117" s="1" t="s">
-        <v>192</v>
+      <c r="J117" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K117" s="3">
         <v>44993.412780362698</v>
@@ -6202,7 +6202,7 @@
       </c>
       <c r="M117" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('bd-th-t10','DHQGHN','TK',NULL,N'Bồi Dưỡng Năng Lực Tự Học Toán 10',NULL,'bd-th-t10.jpg',112000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('bd-th-t10','DHQGHN','TK',NULL,N'Bồi Dưỡng Năng Lực Tự Học Toán 10',NULL,'bd-th-t10.jpg',112000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -6234,8 +6234,8 @@
       <c r="I118" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J118" s="1" t="s">
-        <v>192</v>
+      <c r="J118" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K118" s="3">
         <v>44993.412780362698</v>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="M118" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('ppg-hh10','DN','TK',NULL,N'Phân Loại Và Phương Pháp Giải Các Dạng Toán Hình Học 10 (Cơ Bản &amp; Nâng Cao)',NULL,'ppg-hh10.jpg',40000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ppg-hh10','DN','TK',NULL,N'Phân Loại Và Phương Pháp Giải Các Dạng Toán Hình Học 10 (Cơ Bản &amp; Nâng Cao)',NULL,'ppg-hh10.jpg',40000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -6277,8 +6277,8 @@
       <c r="I119" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J119" s="1" t="s">
-        <v>192</v>
+      <c r="J119" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K119" s="3">
         <v>44993.412780362698</v>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="M119" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('ppg-ds11','DHQGHN','TK',NULL,N'Phương Pháp Giải Các Chuyên Đề Căn Bản Đại Số - Giải Tích 11',NULL,'ppg-ds11.jpg',97000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ppg-ds11','DHQGHN','TK',NULL,N'Phương Pháp Giải Các Chuyên Đề Căn Bản Đại Số - Giải Tích 11',NULL,'ppg-ds11.jpg',97000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -6320,8 +6320,8 @@
       <c r="I120" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J120" s="1" t="s">
-        <v>192</v>
+      <c r="J120" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K120" s="3">
         <v>44993.412780362698</v>
@@ -6331,7 +6331,7 @@
       </c>
       <c r="M120" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('ppg-hh11','DHQGHN','TK',NULL,N'Phân Dạng &amp; Phương pháp Giải Các Dạng Bài Tập Trắc Nghiệm - Hình Học 11',NULL,'ppg-hh11.jpg',56000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ppg-hh11','DHQGHN','TK',NULL,N'Phân Dạng &amp; Phương pháp Giải Các Dạng Bài Tập Trắc Nghiệm - Hình Học 11',NULL,'ppg-hh11.jpg',56000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -6363,8 +6363,8 @@
       <c r="I121" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J121" s="1" t="s">
-        <v>192</v>
+      <c r="J121" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K121" s="3">
         <v>44993.412780362698</v>
@@ -6374,7 +6374,7 @@
       </c>
       <c r="M121" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('tn-t11','DHQGHN','TK',NULL,N'Trắc Nghiệm Chuyên Đề Đại Số - Giải Tích &amp; Hình Học 11',NULL,'tn-t11.jpg',106000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('tn-t11','DHQGHN','TK',NULL,N'Trắc Nghiệm Chuyên Đề Đại Số - Giải Tích &amp; Hình Học 11',NULL,'tn-t11.jpg',106000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -6406,8 +6406,8 @@
       <c r="I122" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J122" s="1" t="s">
-        <v>192</v>
+      <c r="J122" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K122" s="3">
         <v>44993.412780362698</v>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="M122" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('vdu-nc-t11','DHQGHN','TK',NULL,N'15 Chủ Đề Vận Dụng &amp; Nâng Cao Toán Trắc Nghiệm 11',NULL,'vdu-nc-t11.jpg',70000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('vdu-nc-t11','DHQGHN','TK',NULL,N'15 Chủ Đề Vận Dụng &amp; Nâng Cao Toán Trắc Nghiệm 11',NULL,'vdu-nc-t11.jpg',70000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -6449,8 +6449,8 @@
       <c r="I123" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J123" s="1" t="s">
-        <v>192</v>
+      <c r="J123" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K123" s="3">
         <v>44993.412780362698</v>
@@ -6460,7 +6460,7 @@
       </c>
       <c r="M123" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('tn-cd-t12','DHQGHN','TK',NULL,N'Trắc Nghiệm Chuyên Đề Giải Tích Và Hình Học 12',NULL,'tn-cd-t12.jpg',200000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('tn-cd-t12','DHQGHN','TK',NULL,N'Trắc Nghiệm Chuyên Đề Giải Tích Và Hình Học 12',NULL,'tn-cd-t12.jpg',200000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -6492,8 +6492,8 @@
       <c r="I124" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J124" s="1" t="s">
-        <v>192</v>
+      <c r="J124" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K124" s="3">
         <v>44993.412780362698</v>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="M124" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('50dmh-t12','TN','TK',NULL,N'50 Đề Minh Họa 2023 Môn Toán Học',NULL,'50dmh-t12.jpg',180000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('50dmh-t12','TN','TK',NULL,N'50 Đề Minh Họa 2023 Môn Toán Học',NULL,'50dmh-t12.jpg',180000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -6535,8 +6535,8 @@
       <c r="I125" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J125" s="1" t="s">
-        <v>192</v>
+      <c r="J125" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K125" s="3">
         <v>44993.412777777776</v>
@@ -6546,7 +6546,7 @@
       </c>
       <c r="M125" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('ppg-ds12','DHQGHN','TK',NULL,N'Phương Pháp Giải Toán Chuyên Đề Giải Tích 12',NULL,'ppg-ds12.jpg',114000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('ppg-ds12','DHQGHN','TK',NULL,N'Phương Pháp Giải Toán Chuyên Đề Giải Tích 12',NULL,'ppg-ds12.jpg',114000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -6578,8 +6578,8 @@
       <c r="I126" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J126" s="1" t="s">
-        <v>192</v>
+      <c r="J126" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="K126" s="3">
         <v>44993.412777777776</v>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="M126" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO Sach VALUES('o-t12','DN','TK',NULL,N'Tổng Ôn Toán Học (Tái Bản 2023)',NULL,'o-t12.jpg',180000,1,NULL,'',NULL)</v>
+        <v>INSERT INTO Sach VALUES('o-t12','DN','TK',NULL,N'Tổng Ôn Toán Học (Tái Bản 2023)',NULL,'o-t12.jpg',180000,1,FALSE,'',NULL)</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
